--- a/BackTest/2020-01-20 BackTest FCT.xlsx
+++ b/BackTest/2020-01-20 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M213"/>
+  <dimension ref="A1:M214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>32.89</v>
       </c>
       <c r="C2" t="n">
-        <v>33.02</v>
+        <v>32.9</v>
       </c>
       <c r="D2" t="n">
-        <v>33.02</v>
+        <v>32.9</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>32.89</v>
       </c>
       <c r="F2" t="n">
-        <v>26320.5256</v>
+        <v>5035.4668</v>
       </c>
       <c r="G2" t="n">
-        <v>32.91216666666667</v>
+        <v>32.92350000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.99</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
         <v>33.02</v>
@@ -477,13 +477,13 @@
         <v>33.02</v>
       </c>
       <c r="E3" t="n">
-        <v>32.99</v>
+        <v>33</v>
       </c>
       <c r="F3" t="n">
-        <v>21779.4752</v>
+        <v>26320.5256</v>
       </c>
       <c r="G3" t="n">
-        <v>32.90083333333334</v>
+        <v>32.91216666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.02</v>
+        <v>32.99</v>
       </c>
       <c r="C4" t="n">
         <v>33.02</v>
@@ -512,13 +512,13 @@
         <v>33.02</v>
       </c>
       <c r="E4" t="n">
-        <v>33.02</v>
+        <v>32.99</v>
       </c>
       <c r="F4" t="n">
-        <v>25575.5214</v>
+        <v>21779.4752</v>
       </c>
       <c r="G4" t="n">
-        <v>32.88950000000001</v>
+        <v>32.90083333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>33.02</v>
       </c>
       <c r="C5" t="n">
-        <v>33.03</v>
+        <v>33.02</v>
       </c>
       <c r="D5" t="n">
-        <v>33.03</v>
+        <v>33.02</v>
       </c>
       <c r="E5" t="n">
         <v>33.02</v>
       </c>
       <c r="F5" t="n">
-        <v>74325.32000000001</v>
+        <v>25575.5214</v>
       </c>
       <c r="G5" t="n">
-        <v>32.87833333333334</v>
+        <v>32.88950000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33.04</v>
+        <v>33.02</v>
       </c>
       <c r="C6" t="n">
-        <v>33.05</v>
+        <v>33.03</v>
       </c>
       <c r="D6" t="n">
-        <v>33.05</v>
+        <v>33.03</v>
       </c>
       <c r="E6" t="n">
-        <v>33.04</v>
+        <v>33.02</v>
       </c>
       <c r="F6" t="n">
-        <v>155002.6525</v>
+        <v>74325.32000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>32.8675</v>
+        <v>32.87833333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>33.05</v>
+        <v>33.04</v>
       </c>
       <c r="C7" t="n">
         <v>33.05</v>
@@ -617,13 +617,13 @@
         <v>33.05</v>
       </c>
       <c r="E7" t="n">
-        <v>33.05</v>
+        <v>33.04</v>
       </c>
       <c r="F7" t="n">
-        <v>44927.7272</v>
+        <v>155002.6525</v>
       </c>
       <c r="G7" t="n">
-        <v>32.85666666666667</v>
+        <v>32.8675</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>33.05</v>
       </c>
       <c r="F8" t="n">
-        <v>30459.6313161876</v>
+        <v>44927.7272</v>
       </c>
       <c r="G8" t="n">
-        <v>32.84583333333333</v>
+        <v>32.85666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>33.05</v>
       </c>
       <c r="F9" t="n">
-        <v>15676.0312</v>
+        <v>30459.6313161876</v>
       </c>
       <c r="G9" t="n">
-        <v>32.835</v>
+        <v>32.84583333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>33.04</v>
+        <v>33.05</v>
       </c>
       <c r="C10" t="n">
-        <v>33.03</v>
+        <v>33.05</v>
       </c>
       <c r="D10" t="n">
         <v>33.05</v>
       </c>
       <c r="E10" t="n">
-        <v>33.03</v>
+        <v>33.05</v>
       </c>
       <c r="F10" t="n">
-        <v>81846.36410000001</v>
+        <v>15676.0312</v>
       </c>
       <c r="G10" t="n">
-        <v>32.82233333333333</v>
+        <v>32.835</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>33.03</v>
+        <v>33.04</v>
       </c>
       <c r="C11" t="n">
         <v>33.03</v>
       </c>
       <c r="D11" t="n">
-        <v>33.03</v>
+        <v>33.05</v>
       </c>
       <c r="E11" t="n">
         <v>33.03</v>
       </c>
       <c r="F11" t="n">
-        <v>5558.3031</v>
+        <v>81846.36410000001</v>
       </c>
       <c r="G11" t="n">
-        <v>32.80883333333333</v>
+        <v>32.82233333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>32.8</v>
+        <v>33.03</v>
       </c>
       <c r="C12" t="n">
-        <v>32.57</v>
+        <v>33.03</v>
       </c>
       <c r="D12" t="n">
-        <v>32.8</v>
+        <v>33.03</v>
       </c>
       <c r="E12" t="n">
-        <v>32.57</v>
+        <v>33.03</v>
       </c>
       <c r="F12" t="n">
-        <v>116286.5129</v>
+        <v>5558.3031</v>
       </c>
       <c r="G12" t="n">
-        <v>32.79816666666667</v>
+        <v>32.80883333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32.5</v>
+        <v>32.8</v>
       </c>
       <c r="C13" t="n">
-        <v>32.41</v>
+        <v>32.57</v>
       </c>
       <c r="D13" t="n">
-        <v>32.5</v>
+        <v>32.8</v>
       </c>
       <c r="E13" t="n">
-        <v>32.41</v>
+        <v>32.57</v>
       </c>
       <c r="F13" t="n">
-        <v>77698.2212</v>
+        <v>116286.5129</v>
       </c>
       <c r="G13" t="n">
-        <v>32.77433333333333</v>
+        <v>32.79816666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="C14" t="n">
+        <v>32.41</v>
+      </c>
+      <c r="D14" t="n">
         <v>32.5</v>
       </c>
-      <c r="D14" t="n">
-        <v>32.7</v>
-      </c>
       <c r="E14" t="n">
-        <v>32.5</v>
+        <v>32.41</v>
       </c>
       <c r="F14" t="n">
-        <v>33240.3579</v>
+        <v>77698.2212</v>
       </c>
       <c r="G14" t="n">
-        <v>32.76433333333333</v>
+        <v>32.77433333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>32.4</v>
+        <v>32.7</v>
       </c>
       <c r="C15" t="n">
-        <v>32.06</v>
+        <v>32.5</v>
       </c>
       <c r="D15" t="n">
-        <v>32.4</v>
+        <v>32.7</v>
       </c>
       <c r="E15" t="n">
-        <v>32.06</v>
+        <v>32.5</v>
       </c>
       <c r="F15" t="n">
-        <v>17757.0097</v>
+        <v>33240.3579</v>
       </c>
       <c r="G15" t="n">
-        <v>32.74533333333333</v>
+        <v>32.76433333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>32.06</v>
+        <v>32.4</v>
       </c>
       <c r="C16" t="n">
         <v>32.06</v>
       </c>
       <c r="D16" t="n">
-        <v>32.06</v>
+        <v>32.4</v>
       </c>
       <c r="E16" t="n">
         <v>32.06</v>
       </c>
       <c r="F16" t="n">
-        <v>2964.2538</v>
+        <v>17757.0097</v>
       </c>
       <c r="G16" t="n">
-        <v>32.73549999999999</v>
+        <v>32.74533333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>32.06</v>
       </c>
       <c r="F17" t="n">
-        <v>12581.0193</v>
+        <v>2964.2538</v>
       </c>
       <c r="G17" t="n">
-        <v>32.72566666666666</v>
+        <v>32.73549999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,19 +993,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>32.57</v>
+        <v>32.06</v>
       </c>
       <c r="C18" t="n">
-        <v>32.57</v>
+        <v>32.06</v>
       </c>
       <c r="D18" t="n">
-        <v>32.57</v>
+        <v>32.06</v>
       </c>
       <c r="E18" t="n">
-        <v>32.57</v>
+        <v>32.06</v>
       </c>
       <c r="F18" t="n">
-        <v>6117.5745</v>
+        <v>12581.0193</v>
       </c>
       <c r="G18" t="n">
         <v>32.72566666666666</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>32.15</v>
+        <v>32.57</v>
       </c>
       <c r="C19" t="n">
-        <v>32.15</v>
+        <v>32.57</v>
       </c>
       <c r="D19" t="n">
-        <v>32.15</v>
+        <v>32.57</v>
       </c>
       <c r="E19" t="n">
-        <v>32.15</v>
+        <v>32.57</v>
       </c>
       <c r="F19" t="n">
-        <v>23160.2324</v>
+        <v>6117.5745</v>
       </c>
       <c r="G19" t="n">
-        <v>32.70216666666666</v>
+        <v>32.72566666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>32.45</v>
+        <v>32.15</v>
       </c>
       <c r="C20" t="n">
-        <v>32.45</v>
+        <v>32.15</v>
       </c>
       <c r="D20" t="n">
-        <v>32.45</v>
+        <v>32.15</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45</v>
+        <v>32.15</v>
       </c>
       <c r="F20" t="n">
-        <v>4000</v>
+        <v>23160.2324</v>
       </c>
       <c r="G20" t="n">
-        <v>32.68366666666667</v>
+        <v>32.70216666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>32.18</v>
+        <v>32.45</v>
       </c>
       <c r="C21" t="n">
-        <v>32.16</v>
+        <v>32.45</v>
       </c>
       <c r="D21" t="n">
-        <v>32.18</v>
+        <v>32.45</v>
       </c>
       <c r="E21" t="n">
-        <v>32.16</v>
+        <v>32.45</v>
       </c>
       <c r="F21" t="n">
-        <v>45145.0358</v>
+        <v>4000</v>
       </c>
       <c r="G21" t="n">
-        <v>32.65966666666667</v>
+        <v>32.68366666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="C22" t="n">
         <v>32.16</v>
       </c>
-      <c r="C22" t="n">
-        <v>32.15</v>
-      </c>
       <c r="D22" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="E22" t="n">
         <v>32.16</v>
       </c>
-      <c r="E22" t="n">
-        <v>32.15</v>
-      </c>
       <c r="F22" t="n">
-        <v>147572.452</v>
+        <v>45145.0358</v>
       </c>
       <c r="G22" t="n">
-        <v>32.63550000000001</v>
+        <v>32.65966666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>32.15</v>
+        <v>32.16</v>
       </c>
       <c r="C23" t="n">
         <v>32.15</v>
       </c>
       <c r="D23" t="n">
-        <v>32.15</v>
+        <v>32.16</v>
       </c>
       <c r="E23" t="n">
         <v>32.15</v>
       </c>
       <c r="F23" t="n">
-        <v>6306.3477</v>
+        <v>147572.452</v>
       </c>
       <c r="G23" t="n">
-        <v>32.62033333333334</v>
+        <v>32.63550000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>32.06</v>
+        <v>32.15</v>
       </c>
       <c r="C24" t="n">
-        <v>32.03</v>
+        <v>32.15</v>
       </c>
       <c r="D24" t="n">
-        <v>32.06</v>
+        <v>32.15</v>
       </c>
       <c r="E24" t="n">
-        <v>32.03</v>
+        <v>32.15</v>
       </c>
       <c r="F24" t="n">
-        <v>48788.7229</v>
+        <v>6306.3477</v>
       </c>
       <c r="G24" t="n">
-        <v>32.61066666666667</v>
+        <v>32.62033333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>32.1</v>
+        <v>32.06</v>
       </c>
       <c r="C25" t="n">
-        <v>32.1</v>
+        <v>32.03</v>
       </c>
       <c r="D25" t="n">
-        <v>32.1</v>
+        <v>32.06</v>
       </c>
       <c r="E25" t="n">
-        <v>32.1</v>
+        <v>32.03</v>
       </c>
       <c r="F25" t="n">
-        <v>3526.2736</v>
+        <v>48788.7229</v>
       </c>
       <c r="G25" t="n">
-        <v>32.60150000000001</v>
+        <v>32.61066666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>32.1</v>
       </c>
       <c r="F26" t="n">
-        <v>5882.1863</v>
+        <v>3526.2736</v>
       </c>
       <c r="G26" t="n">
-        <v>32.5915</v>
+        <v>32.60150000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>32.12</v>
+        <v>32.1</v>
       </c>
       <c r="C27" t="n">
-        <v>32.15</v>
+        <v>32.1</v>
       </c>
       <c r="D27" t="n">
-        <v>32.15</v>
+        <v>32.1</v>
       </c>
       <c r="E27" t="n">
-        <v>32.11</v>
+        <v>32.1</v>
       </c>
       <c r="F27" t="n">
-        <v>34143.5991</v>
+        <v>5882.1863</v>
       </c>
       <c r="G27" t="n">
-        <v>32.58216666666667</v>
+        <v>32.5915</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>32.11</v>
+        <v>32.12</v>
       </c>
       <c r="C28" t="n">
-        <v>32.11</v>
+        <v>32.15</v>
       </c>
       <c r="D28" t="n">
-        <v>32.11</v>
+        <v>32.15</v>
       </c>
       <c r="E28" t="n">
         <v>32.11</v>
       </c>
       <c r="F28" t="n">
-        <v>22831.886</v>
+        <v>34143.5991</v>
       </c>
       <c r="G28" t="n">
-        <v>32.561</v>
+        <v>32.58216666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>32.11</v>
       </c>
       <c r="C29" t="n">
-        <v>32.57</v>
+        <v>32.11</v>
       </c>
       <c r="D29" t="n">
-        <v>32.57</v>
+        <v>32.11</v>
       </c>
       <c r="E29" t="n">
-        <v>32.1</v>
+        <v>32.11</v>
       </c>
       <c r="F29" t="n">
-        <v>80825.8593</v>
+        <v>22831.886</v>
       </c>
       <c r="G29" t="n">
-        <v>32.549</v>
+        <v>32.561</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>32.11</v>
       </c>
       <c r="C30" t="n">
-        <v>32.1</v>
+        <v>32.57</v>
       </c>
       <c r="D30" t="n">
-        <v>32.11</v>
+        <v>32.57</v>
       </c>
       <c r="E30" t="n">
         <v>32.1</v>
       </c>
       <c r="F30" t="n">
-        <v>15247.5912</v>
+        <v>80825.8593</v>
       </c>
       <c r="G30" t="n">
-        <v>32.52916666666667</v>
+        <v>32.549</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>32.11</v>
       </c>
       <c r="C31" t="n">
-        <v>32.11</v>
+        <v>32.1</v>
       </c>
       <c r="D31" t="n">
         <v>32.11</v>
       </c>
       <c r="E31" t="n">
-        <v>32.11</v>
+        <v>32.1</v>
       </c>
       <c r="F31" t="n">
-        <v>5923.1005</v>
+        <v>15247.5912</v>
       </c>
       <c r="G31" t="n">
-        <v>32.51266666666667</v>
+        <v>32.52916666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>32.11</v>
       </c>
       <c r="C32" t="n">
-        <v>32.1</v>
+        <v>32.11</v>
       </c>
       <c r="D32" t="n">
         <v>32.11</v>
       </c>
       <c r="E32" t="n">
-        <v>32.1</v>
+        <v>32.11</v>
       </c>
       <c r="F32" t="n">
-        <v>88511.5233</v>
+        <v>5923.1005</v>
       </c>
       <c r="G32" t="n">
-        <v>32.49433333333333</v>
+        <v>32.51266666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>32.1</v>
+        <v>32.11</v>
       </c>
       <c r="C33" t="n">
         <v>32.1</v>
       </c>
       <c r="D33" t="n">
-        <v>32.1</v>
+        <v>32.11</v>
       </c>
       <c r="E33" t="n">
         <v>32.1</v>
       </c>
       <c r="F33" t="n">
-        <v>2920.8158</v>
+        <v>88511.5233</v>
       </c>
       <c r="G33" t="n">
-        <v>32.48516666666666</v>
+        <v>32.49433333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>32.1</v>
       </c>
       <c r="C34" t="n">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="D34" t="n">
         <v>32.1</v>
       </c>
       <c r="E34" t="n">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="F34" t="n">
-        <v>235915.977</v>
+        <v>2920.8158</v>
       </c>
       <c r="G34" t="n">
-        <v>32.4715</v>
+        <v>32.48516666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>31.75</v>
+        <v>32.1</v>
       </c>
       <c r="C35" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="D35" t="n">
-        <v>31.75</v>
+        <v>32.1</v>
       </c>
       <c r="E35" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="F35" t="n">
-        <v>315013.9313</v>
+        <v>235915.977</v>
       </c>
       <c r="G35" t="n">
-        <v>32.45283333333333</v>
+        <v>32.4715</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>31.5</v>
+        <v>31.75</v>
       </c>
       <c r="C36" t="n">
         <v>31.5</v>
       </c>
       <c r="D36" t="n">
-        <v>31.5</v>
+        <v>31.75</v>
       </c>
       <c r="E36" t="n">
         <v>31.5</v>
       </c>
       <c r="F36" t="n">
-        <v>39318.9013</v>
+        <v>315013.9313</v>
       </c>
       <c r="G36" t="n">
-        <v>32.43616666666667</v>
+        <v>32.45283333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>31.49</v>
+        <v>31.5</v>
       </c>
       <c r="C37" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="D37" t="n">
-        <v>31.49</v>
+        <v>31.5</v>
       </c>
       <c r="E37" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="F37" t="n">
-        <v>58519.581</v>
+        <v>39318.9013</v>
       </c>
       <c r="G37" t="n">
-        <v>32.41783333333333</v>
+        <v>32.43616666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>31.49</v>
+      </c>
+      <c r="C38" t="n">
         <v>31.4</v>
       </c>
-      <c r="C38" t="n">
-        <v>31.16</v>
-      </c>
       <c r="D38" t="n">
+        <v>31.49</v>
+      </c>
+      <c r="E38" t="n">
         <v>31.4</v>
       </c>
-      <c r="E38" t="n">
-        <v>31.16</v>
-      </c>
       <c r="F38" t="n">
-        <v>98673.46739999999</v>
+        <v>58519.581</v>
       </c>
       <c r="G38" t="n">
-        <v>32.3955</v>
+        <v>32.41783333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>31.15</v>
+        <v>31.4</v>
       </c>
       <c r="C39" t="n">
-        <v>31.03</v>
+        <v>31.16</v>
       </c>
       <c r="D39" t="n">
-        <v>31.15</v>
+        <v>31.4</v>
       </c>
       <c r="E39" t="n">
-        <v>31.03</v>
+        <v>31.16</v>
       </c>
       <c r="F39" t="n">
-        <v>35520.3515</v>
+        <v>98673.46739999999</v>
       </c>
       <c r="G39" t="n">
-        <v>32.36166666666666</v>
+        <v>32.3955</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>31.2</v>
+        <v>31.15</v>
       </c>
       <c r="C40" t="n">
         <v>31.03</v>
       </c>
       <c r="D40" t="n">
-        <v>31.2</v>
+        <v>31.15</v>
       </c>
       <c r="E40" t="n">
         <v>31.03</v>
       </c>
       <c r="F40" t="n">
-        <v>319454.8304</v>
+        <v>35520.3515</v>
       </c>
       <c r="G40" t="n">
-        <v>32.33716666666667</v>
+        <v>32.36166666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>31.03</v>
+        <v>31.2</v>
       </c>
       <c r="C41" t="n">
         <v>31.03</v>
       </c>
       <c r="D41" t="n">
-        <v>31.03</v>
+        <v>31.2</v>
       </c>
       <c r="E41" t="n">
         <v>31.03</v>
       </c>
       <c r="F41" t="n">
-        <v>1285.1104</v>
+        <v>319454.8304</v>
       </c>
       <c r="G41" t="n">
-        <v>32.31266666666667</v>
+        <v>32.33716666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>31.11</v>
+        <v>31.03</v>
       </c>
       <c r="C42" t="n">
-        <v>31.11</v>
+        <v>31.03</v>
       </c>
       <c r="D42" t="n">
-        <v>31.11</v>
+        <v>31.03</v>
       </c>
       <c r="E42" t="n">
-        <v>31.11</v>
+        <v>31.03</v>
       </c>
       <c r="F42" t="n">
-        <v>7000</v>
+        <v>1285.1104</v>
       </c>
       <c r="G42" t="n">
-        <v>32.2895</v>
+        <v>32.31266666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>31.7</v>
+        <v>31.11</v>
       </c>
       <c r="C43" t="n">
-        <v>31.7</v>
+        <v>31.11</v>
       </c>
       <c r="D43" t="n">
-        <v>31.7</v>
+        <v>31.11</v>
       </c>
       <c r="E43" t="n">
-        <v>31.7</v>
+        <v>31.11</v>
       </c>
       <c r="F43" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G43" t="n">
-        <v>32.27733333333333</v>
+        <v>32.2895</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>31.7</v>
       </c>
       <c r="F44" t="n">
-        <v>19559.1157</v>
+        <v>3000</v>
       </c>
       <c r="G44" t="n">
-        <v>32.26516666666667</v>
+        <v>32.27733333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31.4</v>
+        <v>31.7</v>
       </c>
       <c r="C45" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="D45" t="n">
-        <v>31.4</v>
+        <v>31.7</v>
       </c>
       <c r="E45" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="F45" t="n">
-        <v>1725.9731</v>
+        <v>19559.1157</v>
       </c>
       <c r="G45" t="n">
-        <v>32.24633333333333</v>
+        <v>32.26516666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C46" t="n">
         <v>31.3</v>
-      </c>
-      <c r="C46" t="n">
-        <v>31.4</v>
       </c>
       <c r="D46" t="n">
         <v>31.4</v>
       </c>
       <c r="E46" t="n">
-        <v>31.25</v>
+        <v>31.3</v>
       </c>
       <c r="F46" t="n">
-        <v>47531.5333</v>
+        <v>1725.9731</v>
       </c>
       <c r="G46" t="n">
-        <v>32.22949999999999</v>
+        <v>32.24633333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>31.25</v>
+        <v>31.3</v>
       </c>
       <c r="C47" t="n">
-        <v>31.25</v>
+        <v>31.4</v>
       </c>
       <c r="D47" t="n">
-        <v>31.25</v>
+        <v>31.4</v>
       </c>
       <c r="E47" t="n">
         <v>31.25</v>
       </c>
       <c r="F47" t="n">
-        <v>1465.165</v>
+        <v>47531.5333</v>
       </c>
       <c r="G47" t="n">
-        <v>32.21016666666666</v>
+        <v>32.22949999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>31.25</v>
       </c>
       <c r="F48" t="n">
-        <v>13721.5499</v>
+        <v>1465.165</v>
       </c>
       <c r="G48" t="n">
-        <v>32.19083333333332</v>
+        <v>32.21016666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>31.25</v>
       </c>
       <c r="F49" t="n">
-        <v>21613.5334</v>
+        <v>13721.5499</v>
       </c>
       <c r="G49" t="n">
-        <v>32.17133333333332</v>
+        <v>32.19083333333332</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>31.25</v>
       </c>
       <c r="F50" t="n">
-        <v>5871.8535</v>
+        <v>21613.5334</v>
       </c>
       <c r="G50" t="n">
-        <v>32.15166666666666</v>
+        <v>32.17133333333332</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>31.3</v>
+        <v>31.25</v>
       </c>
       <c r="C51" t="n">
-        <v>31.3</v>
+        <v>31.25</v>
       </c>
       <c r="D51" t="n">
-        <v>31.3</v>
+        <v>31.25</v>
       </c>
       <c r="E51" t="n">
-        <v>31.3</v>
+        <v>31.25</v>
       </c>
       <c r="F51" t="n">
-        <v>155.5910543130991</v>
+        <v>5871.8535</v>
       </c>
       <c r="G51" t="n">
-        <v>32.13316666666665</v>
+        <v>32.15166666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>31.3</v>
       </c>
       <c r="F52" t="n">
-        <v>992.3522456869009</v>
+        <v>155.5910543130991</v>
       </c>
       <c r="G52" t="n">
-        <v>32.11433333333332</v>
+        <v>32.13316666666665</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="C53" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="D53" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="E53" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="F53" t="n">
-        <v>1305.6224</v>
+        <v>992.3522456869009</v>
       </c>
       <c r="G53" t="n">
-        <v>32.09749999999999</v>
+        <v>32.11433333333332</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>31.4</v>
       </c>
       <c r="F54" t="n">
-        <v>2297.9746</v>
+        <v>1305.6224</v>
       </c>
       <c r="G54" t="n">
-        <v>32.08066666666665</v>
+        <v>32.09749999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>31.4</v>
       </c>
       <c r="C55" t="n">
-        <v>31.25</v>
+        <v>31.4</v>
       </c>
       <c r="D55" t="n">
         <v>31.4</v>
       </c>
       <c r="E55" t="n">
-        <v>31.25</v>
+        <v>31.4</v>
       </c>
       <c r="F55" t="n">
-        <v>14196.729</v>
+        <v>2297.9746</v>
       </c>
       <c r="G55" t="n">
-        <v>32.06133333333332</v>
+        <v>32.08066666666665</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="C56" t="n">
-        <v>31.6</v>
+        <v>31.25</v>
       </c>
       <c r="D56" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="E56" t="n">
-        <v>31.5</v>
+        <v>31.25</v>
       </c>
       <c r="F56" t="n">
-        <v>5430.8298</v>
+        <v>14196.729</v>
       </c>
       <c r="G56" t="n">
-        <v>32.04749999999999</v>
+        <v>32.06133333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="C57" t="n">
         <v>31.6</v>
@@ -2367,13 +2367,13 @@
         <v>31.6</v>
       </c>
       <c r="E57" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="F57" t="n">
-        <v>7688.3601</v>
+        <v>5430.8298</v>
       </c>
       <c r="G57" t="n">
-        <v>32.03366666666665</v>
+        <v>32.04749999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>31.6</v>
       </c>
       <c r="F58" t="n">
-        <v>46.1887</v>
+        <v>7688.3601</v>
       </c>
       <c r="G58" t="n">
-        <v>32.01866666666665</v>
+        <v>32.03366666666665</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>31.6</v>
       </c>
       <c r="C59" t="n">
-        <v>31.75</v>
+        <v>31.6</v>
       </c>
       <c r="D59" t="n">
-        <v>31.75</v>
+        <v>31.6</v>
       </c>
       <c r="E59" t="n">
         <v>31.6</v>
       </c>
       <c r="F59" t="n">
-        <v>2506.0466</v>
+        <v>46.1887</v>
       </c>
       <c r="G59" t="n">
-        <v>32.00616666666664</v>
+        <v>32.01866666666665</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>31.75</v>
+        <v>31.6</v>
       </c>
       <c r="C60" t="n">
         <v>31.75</v>
@@ -2472,13 +2472,13 @@
         <v>31.75</v>
       </c>
       <c r="E60" t="n">
-        <v>31.75</v>
+        <v>31.6</v>
       </c>
       <c r="F60" t="n">
-        <v>3953.4797</v>
+        <v>2506.0466</v>
       </c>
       <c r="G60" t="n">
-        <v>31.99366666666664</v>
+        <v>32.00616666666664</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>31.75</v>
       </c>
       <c r="F61" t="n">
-        <v>4788.9843</v>
+        <v>3953.4797</v>
       </c>
       <c r="G61" t="n">
-        <v>31.97449999999998</v>
+        <v>31.99366666666664</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>31.75</v>
       </c>
       <c r="F62" t="n">
-        <v>13113.3322</v>
+        <v>4788.9843</v>
       </c>
       <c r="G62" t="n">
-        <v>31.95333333333331</v>
+        <v>31.97449999999998</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>31.76</v>
+        <v>31.75</v>
       </c>
       <c r="C63" t="n">
-        <v>31.76</v>
+        <v>31.75</v>
       </c>
       <c r="D63" t="n">
-        <v>31.76</v>
+        <v>31.75</v>
       </c>
       <c r="E63" t="n">
-        <v>31.76</v>
+        <v>31.75</v>
       </c>
       <c r="F63" t="n">
-        <v>20.3226</v>
+        <v>13113.3322</v>
       </c>
       <c r="G63" t="n">
-        <v>31.93233333333331</v>
+        <v>31.95333333333331</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>31.76</v>
       </c>
       <c r="F64" t="n">
-        <v>295.2732</v>
+        <v>20.3226</v>
       </c>
       <c r="G64" t="n">
-        <v>31.91133333333331</v>
+        <v>31.93233333333331</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>31.76</v>
       </c>
       <c r="F65" t="n">
-        <v>198.7214</v>
+        <v>295.2732</v>
       </c>
       <c r="G65" t="n">
-        <v>31.89016666666664</v>
+        <v>31.91133333333331</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>31.76</v>
       </c>
       <c r="F66" t="n">
-        <v>596.6946</v>
+        <v>198.7214</v>
       </c>
       <c r="G66" t="n">
-        <v>31.86866666666664</v>
+        <v>31.89016666666664</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>31.76</v>
       </c>
       <c r="F67" t="n">
-        <v>631.0651</v>
+        <v>596.6946</v>
       </c>
       <c r="G67" t="n">
-        <v>31.84716666666665</v>
+        <v>31.86866666666664</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>31.76</v>
       </c>
       <c r="F68" t="n">
-        <v>236.8069</v>
+        <v>631.0651</v>
       </c>
       <c r="G68" t="n">
-        <v>31.82566666666665</v>
+        <v>31.84716666666665</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>31.76</v>
       </c>
       <c r="F69" t="n">
-        <v>257.8481</v>
+        <v>236.8069</v>
       </c>
       <c r="G69" t="n">
-        <v>31.80416666666665</v>
+        <v>31.82566666666665</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>31.76</v>
       </c>
       <c r="F70" t="n">
-        <v>225.7542</v>
+        <v>257.8481</v>
       </c>
       <c r="G70" t="n">
-        <v>31.78299999999998</v>
+        <v>31.80416666666665</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>31.76</v>
       </c>
       <c r="F71" t="n">
-        <v>4477.5413</v>
+        <v>225.7542</v>
       </c>
       <c r="G71" t="n">
-        <v>31.76183333333331</v>
+        <v>31.78299999999998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>31.6</v>
+        <v>31.76</v>
       </c>
       <c r="C72" t="n">
-        <v>31.6</v>
+        <v>31.76</v>
       </c>
       <c r="D72" t="n">
-        <v>31.6</v>
+        <v>31.76</v>
       </c>
       <c r="E72" t="n">
-        <v>31.6</v>
+        <v>31.76</v>
       </c>
       <c r="F72" t="n">
-        <v>6449.9808</v>
+        <v>4477.5413</v>
       </c>
       <c r="G72" t="n">
-        <v>31.74566666666665</v>
+        <v>31.76183333333331</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="C73" t="n">
-        <v>31.28</v>
+        <v>31.6</v>
       </c>
       <c r="D73" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="E73" t="n">
-        <v>31.28</v>
+        <v>31.6</v>
       </c>
       <c r="F73" t="n">
-        <v>77316.6395</v>
+        <v>6449.9808</v>
       </c>
       <c r="G73" t="n">
-        <v>31.72683333333331</v>
+        <v>31.74566666666665</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="C74" t="n">
-        <v>31.4</v>
+        <v>31.28</v>
       </c>
       <c r="D74" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="E74" t="n">
-        <v>31.4</v>
+        <v>31.28</v>
       </c>
       <c r="F74" t="n">
-        <v>10991.607</v>
+        <v>77316.6395</v>
       </c>
       <c r="G74" t="n">
-        <v>31.70849999999998</v>
+        <v>31.72683333333331</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>31.4</v>
       </c>
       <c r="F75" t="n">
-        <v>3000</v>
+        <v>10991.607</v>
       </c>
       <c r="G75" t="n">
-        <v>31.69749999999998</v>
+        <v>31.70849999999998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>31.4</v>
       </c>
       <c r="F76" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G76" t="n">
-        <v>31.68649999999998</v>
+        <v>31.69749999999998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>31.4</v>
       </c>
       <c r="F77" t="n">
-        <v>889.6172</v>
+        <v>1000</v>
       </c>
       <c r="G77" t="n">
-        <v>31.67549999999999</v>
+        <v>31.68649999999998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>31.4</v>
       </c>
       <c r="F78" t="n">
-        <v>45.0713</v>
+        <v>889.6172</v>
       </c>
       <c r="G78" t="n">
-        <v>31.65599999999999</v>
+        <v>31.67549999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="C79" t="n">
-        <v>31.99</v>
+        <v>31.4</v>
       </c>
       <c r="D79" t="n">
-        <v>31.99</v>
+        <v>31.4</v>
       </c>
       <c r="E79" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="F79" t="n">
-        <v>20000</v>
+        <v>45.0713</v>
       </c>
       <c r="G79" t="n">
-        <v>31.65333333333332</v>
+        <v>31.65599999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="C80" t="n">
-        <v>32.15</v>
+        <v>31.99</v>
       </c>
       <c r="D80" t="n">
-        <v>32.15</v>
+        <v>31.99</v>
       </c>
       <c r="E80" t="n">
-        <v>31.28</v>
+        <v>31.6</v>
       </c>
       <c r="F80" t="n">
-        <v>9140000</v>
+        <v>20000</v>
       </c>
       <c r="G80" t="n">
-        <v>31.64833333333332</v>
+        <v>31.65333333333332</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>31.78</v>
+        <v>31.4</v>
       </c>
       <c r="C81" t="n">
-        <v>31.77</v>
+        <v>32.15</v>
       </c>
       <c r="D81" t="n">
         <v>32.15</v>
       </c>
       <c r="E81" t="n">
-        <v>31.77</v>
+        <v>31.28</v>
       </c>
       <c r="F81" t="n">
-        <v>800276.7988</v>
+        <v>9140000</v>
       </c>
       <c r="G81" t="n">
-        <v>31.64183333333332</v>
+        <v>31.64833333333332</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,28 +3233,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>31.77</v>
+        <v>31.78</v>
       </c>
       <c r="C82" t="n">
         <v>31.77</v>
       </c>
       <c r="D82" t="n">
-        <v>31.77</v>
+        <v>32.15</v>
       </c>
       <c r="E82" t="n">
         <v>31.77</v>
       </c>
       <c r="F82" t="n">
-        <v>658668.5107</v>
+        <v>800276.7988</v>
       </c>
       <c r="G82" t="n">
-        <v>31.63549999999999</v>
+        <v>31.64183333333332</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3268,28 +3268,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>31.4</v>
+        <v>31.77</v>
       </c>
       <c r="C83" t="n">
-        <v>31.13</v>
+        <v>31.77</v>
       </c>
       <c r="D83" t="n">
-        <v>31.4</v>
+        <v>31.77</v>
       </c>
       <c r="E83" t="n">
-        <v>31.13</v>
+        <v>31.77</v>
       </c>
       <c r="F83" t="n">
-        <v>4500000</v>
+        <v>658668.5107</v>
       </c>
       <c r="G83" t="n">
-        <v>31.61849999999999</v>
+        <v>31.63549999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3303,28 +3303,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
       <c r="C84" t="n">
-        <v>31.49</v>
+        <v>31.13</v>
       </c>
       <c r="D84" t="n">
-        <v>32.14</v>
+        <v>31.4</v>
       </c>
       <c r="E84" t="n">
-        <v>31.06</v>
+        <v>31.13</v>
       </c>
       <c r="F84" t="n">
-        <v>5082382.497469882</v>
+        <v>4500000</v>
       </c>
       <c r="G84" t="n">
-        <v>31.60949999999999</v>
+        <v>31.61849999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C85" t="n">
         <v>31.49</v>
       </c>
-      <c r="C85" t="n">
-        <v>31.92</v>
-      </c>
       <c r="D85" t="n">
-        <v>32.13</v>
+        <v>32.14</v>
       </c>
       <c r="E85" t="n">
-        <v>31.49</v>
+        <v>31.06</v>
       </c>
       <c r="F85" t="n">
-        <v>8787188.388599999</v>
+        <v>5082382.497469882</v>
       </c>
       <c r="G85" t="n">
-        <v>31.60649999999999</v>
+        <v>31.60949999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,28 +3373,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>31.49</v>
+      </c>
+      <c r="C86" t="n">
         <v>31.92</v>
-      </c>
-      <c r="C86" t="n">
-        <v>32.13</v>
       </c>
       <c r="D86" t="n">
         <v>32.13</v>
       </c>
       <c r="E86" t="n">
-        <v>31.91</v>
+        <v>31.49</v>
       </c>
       <c r="F86" t="n">
-        <v>6450487.6717</v>
+        <v>8787188.388599999</v>
       </c>
       <c r="G86" t="n">
-        <v>31.60699999999999</v>
+        <v>31.60649999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3408,28 +3408,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>31.99</v>
+        <v>31.92</v>
       </c>
       <c r="C87" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
       <c r="D87" t="n">
-        <v>31.99</v>
+        <v>32.13</v>
       </c>
       <c r="E87" t="n">
-        <v>31.99</v>
+        <v>31.91</v>
       </c>
       <c r="F87" t="n">
-        <v>38.8074</v>
+        <v>6450487.6717</v>
       </c>
       <c r="G87" t="n">
-        <v>31.60433333333333</v>
+        <v>31.60699999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3455,16 +3455,16 @@
         <v>31.99</v>
       </c>
       <c r="F88" t="n">
-        <v>59.1522</v>
+        <v>38.8074</v>
       </c>
       <c r="G88" t="n">
-        <v>31.60233333333333</v>
+        <v>31.60433333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>31.8</v>
+        <v>31.99</v>
       </c>
       <c r="C89" t="n">
-        <v>31.7</v>
+        <v>31.99</v>
       </c>
       <c r="D89" t="n">
-        <v>31.8</v>
+        <v>31.99</v>
       </c>
       <c r="E89" t="n">
-        <v>31.7</v>
+        <v>31.99</v>
       </c>
       <c r="F89" t="n">
-        <v>20362.8966</v>
+        <v>59.1522</v>
       </c>
       <c r="G89" t="n">
-        <v>31.58783333333333</v>
+        <v>31.60233333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="C90" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="D90" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="E90" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="F90" t="n">
-        <v>39.2597</v>
+        <v>20362.8966</v>
       </c>
       <c r="G90" t="n">
-        <v>31.5795</v>
+        <v>31.58783333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>31.6</v>
       </c>
       <c r="F91" t="n">
-        <v>1094.937</v>
+        <v>39.2597</v>
       </c>
       <c r="G91" t="n">
-        <v>31.57099999999999</v>
+        <v>31.5795</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>31.6</v>
       </c>
       <c r="F92" t="n">
-        <v>101.4561</v>
+        <v>1094.937</v>
       </c>
       <c r="G92" t="n">
-        <v>31.56266666666666</v>
+        <v>31.57099999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>31.6</v>
       </c>
       <c r="F93" t="n">
-        <v>4663.1673</v>
+        <v>101.4561</v>
       </c>
       <c r="G93" t="n">
-        <v>31.55433333333333</v>
+        <v>31.56266666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>31.6</v>
       </c>
       <c r="F94" t="n">
-        <v>3188.7875</v>
+        <v>4663.1673</v>
       </c>
       <c r="G94" t="n">
-        <v>31.55099999999999</v>
+        <v>31.55433333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>31.6</v>
       </c>
       <c r="F95" t="n">
-        <v>629.2111</v>
+        <v>3188.7875</v>
       </c>
       <c r="G95" t="n">
-        <v>31.55266666666666</v>
+        <v>31.55099999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>31.58</v>
+        <v>31.6</v>
       </c>
       <c r="C96" t="n">
-        <v>31.58</v>
+        <v>31.6</v>
       </c>
       <c r="D96" t="n">
-        <v>31.58</v>
+        <v>31.6</v>
       </c>
       <c r="E96" t="n">
-        <v>31.58</v>
+        <v>31.6</v>
       </c>
       <c r="F96" t="n">
-        <v>212.5647</v>
+        <v>629.2111</v>
       </c>
       <c r="G96" t="n">
-        <v>31.55399999999999</v>
+        <v>31.55266666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>31.58</v>
       </c>
       <c r="F97" t="n">
-        <v>34738.2455</v>
+        <v>212.5647</v>
       </c>
       <c r="G97" t="n">
-        <v>31.55699999999999</v>
+        <v>31.55399999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>31.45</v>
+        <v>31.58</v>
       </c>
       <c r="C98" t="n">
-        <v>31.45</v>
+        <v>31.58</v>
       </c>
       <c r="D98" t="n">
-        <v>31.45</v>
+        <v>31.58</v>
       </c>
       <c r="E98" t="n">
-        <v>31.45</v>
+        <v>31.58</v>
       </c>
       <c r="F98" t="n">
-        <v>574.0779</v>
+        <v>34738.2455</v>
       </c>
       <c r="G98" t="n">
-        <v>31.56183333333332</v>
+        <v>31.55699999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,19 +3831,19 @@
         <v>31.45</v>
       </c>
       <c r="C99" t="n">
-        <v>31.35</v>
+        <v>31.45</v>
       </c>
       <c r="D99" t="n">
         <v>31.45</v>
       </c>
       <c r="E99" t="n">
-        <v>31.35</v>
+        <v>31.45</v>
       </c>
       <c r="F99" t="n">
-        <v>60000</v>
+        <v>574.0779</v>
       </c>
       <c r="G99" t="n">
-        <v>31.56716666666665</v>
+        <v>31.56183333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>31.4</v>
+        <v>31.45</v>
       </c>
       <c r="C100" t="n">
-        <v>31.4</v>
+        <v>31.35</v>
       </c>
       <c r="D100" t="n">
-        <v>31.4</v>
+        <v>31.45</v>
       </c>
       <c r="E100" t="n">
-        <v>31.4</v>
+        <v>31.35</v>
       </c>
       <c r="F100" t="n">
-        <v>5612.7236</v>
+        <v>60000</v>
       </c>
       <c r="G100" t="n">
-        <v>31.57333333333332</v>
+        <v>31.56716666666665</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>31.35</v>
+        <v>31.4</v>
       </c>
       <c r="C101" t="n">
-        <v>31.35</v>
+        <v>31.4</v>
       </c>
       <c r="D101" t="n">
-        <v>31.35</v>
+        <v>31.4</v>
       </c>
       <c r="E101" t="n">
-        <v>31.35</v>
+        <v>31.4</v>
       </c>
       <c r="F101" t="n">
-        <v>1178.6618</v>
+        <v>5612.7236</v>
       </c>
       <c r="G101" t="n">
-        <v>31.57866666666666</v>
+        <v>31.57333333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>31.4</v>
+        <v>31.35</v>
       </c>
       <c r="C102" t="n">
-        <v>31.4</v>
+        <v>31.35</v>
       </c>
       <c r="D102" t="n">
-        <v>31.4</v>
+        <v>31.35</v>
       </c>
       <c r="E102" t="n">
-        <v>31.4</v>
+        <v>31.35</v>
       </c>
       <c r="F102" t="n">
-        <v>3315.2958</v>
+        <v>1178.6618</v>
       </c>
       <c r="G102" t="n">
-        <v>31.58349999999999</v>
+        <v>31.57866666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>31.4</v>
       </c>
       <c r="F103" t="n">
-        <v>6667.1398</v>
+        <v>3315.2958</v>
       </c>
       <c r="G103" t="n">
-        <v>31.57849999999999</v>
+        <v>31.58349999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>31.35</v>
+        <v>31.4</v>
       </c>
       <c r="C104" t="n">
-        <v>31.35</v>
+        <v>31.4</v>
       </c>
       <c r="D104" t="n">
-        <v>31.35</v>
+        <v>31.4</v>
       </c>
       <c r="E104" t="n">
-        <v>31.35</v>
+        <v>31.4</v>
       </c>
       <c r="F104" t="n">
-        <v>905.9434</v>
+        <v>6667.1398</v>
       </c>
       <c r="G104" t="n">
-        <v>31.57266666666666</v>
+        <v>31.57849999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>31.3</v>
+        <v>31.35</v>
       </c>
       <c r="C105" t="n">
-        <v>31.27</v>
+        <v>31.35</v>
       </c>
       <c r="D105" t="n">
-        <v>31.3</v>
+        <v>31.35</v>
       </c>
       <c r="E105" t="n">
-        <v>31.27</v>
+        <v>31.35</v>
       </c>
       <c r="F105" t="n">
-        <v>15756.2871</v>
+        <v>905.9434</v>
       </c>
       <c r="G105" t="n">
-        <v>31.57216666666666</v>
+        <v>31.57266666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>31.58</v>
+        <v>31.3</v>
       </c>
       <c r="C106" t="n">
-        <v>32.09</v>
+        <v>31.27</v>
       </c>
       <c r="D106" t="n">
-        <v>32.09</v>
+        <v>31.3</v>
       </c>
       <c r="E106" t="n">
-        <v>31.58</v>
+        <v>31.27</v>
       </c>
       <c r="F106" t="n">
-        <v>31300</v>
+        <v>15756.2871</v>
       </c>
       <c r="G106" t="n">
-        <v>31.58366666666666</v>
+        <v>31.57216666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>31.32</v>
+        <v>31.58</v>
       </c>
       <c r="C107" t="n">
-        <v>31.32</v>
+        <v>32.09</v>
       </c>
       <c r="D107" t="n">
-        <v>31.32</v>
+        <v>32.09</v>
       </c>
       <c r="E107" t="n">
-        <v>31.32</v>
+        <v>31.58</v>
       </c>
       <c r="F107" t="n">
-        <v>1500</v>
+        <v>31300</v>
       </c>
       <c r="G107" t="n">
-        <v>31.58483333333332</v>
+        <v>31.58366666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>31.5</v>
+        <v>31.32</v>
       </c>
       <c r="C108" t="n">
-        <v>31.31</v>
+        <v>31.32</v>
       </c>
       <c r="D108" t="n">
-        <v>31.5</v>
+        <v>31.32</v>
       </c>
       <c r="E108" t="n">
-        <v>31.31</v>
+        <v>31.32</v>
       </c>
       <c r="F108" t="n">
-        <v>193481.3556</v>
+        <v>1500</v>
       </c>
       <c r="G108" t="n">
-        <v>31.58583333333332</v>
+        <v>31.58483333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>31.89</v>
+        <v>31.5</v>
       </c>
       <c r="C109" t="n">
-        <v>31.89</v>
+        <v>31.31</v>
       </c>
       <c r="D109" t="n">
-        <v>31.89</v>
+        <v>31.5</v>
       </c>
       <c r="E109" t="n">
-        <v>31.89</v>
+        <v>31.31</v>
       </c>
       <c r="F109" t="n">
-        <v>16</v>
+        <v>193481.3556</v>
       </c>
       <c r="G109" t="n">
-        <v>31.59649999999999</v>
+        <v>31.58583333333332</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>31.89</v>
       </c>
       <c r="F110" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G110" t="n">
-        <v>31.60716666666666</v>
+        <v>31.59649999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>31.89</v>
       </c>
       <c r="F111" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G111" t="n">
-        <v>31.61699999999999</v>
+        <v>31.60716666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>31.87</v>
+        <v>31.89</v>
       </c>
       <c r="C112" t="n">
-        <v>31.87</v>
+        <v>31.89</v>
       </c>
       <c r="D112" t="n">
-        <v>31.87</v>
+        <v>31.89</v>
       </c>
       <c r="E112" t="n">
-        <v>31.87</v>
+        <v>31.89</v>
       </c>
       <c r="F112" t="n">
         <v>33</v>
       </c>
       <c r="G112" t="n">
-        <v>31.62649999999999</v>
+        <v>31.61699999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>31.89</v>
+        <v>31.87</v>
       </c>
       <c r="C113" t="n">
-        <v>31.89</v>
+        <v>31.87</v>
       </c>
       <c r="D113" t="n">
-        <v>31.89</v>
+        <v>31.87</v>
       </c>
       <c r="E113" t="n">
-        <v>31.89</v>
+        <v>31.87</v>
       </c>
       <c r="F113" t="n">
-        <v>1000</v>
+        <v>33</v>
       </c>
       <c r="G113" t="n">
-        <v>31.63466666666666</v>
+        <v>31.62649999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,19 +4353,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>31.55</v>
+        <v>31.89</v>
       </c>
       <c r="C114" t="n">
-        <v>31.4</v>
+        <v>31.89</v>
       </c>
       <c r="D114" t="n">
-        <v>31.55</v>
+        <v>31.89</v>
       </c>
       <c r="E114" t="n">
-        <v>31.4</v>
+        <v>31.89</v>
       </c>
       <c r="F114" t="n">
-        <v>14075.4047</v>
+        <v>1000</v>
       </c>
       <c r="G114" t="n">
         <v>31.63466666666666</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>31.59</v>
+        <v>31.55</v>
       </c>
       <c r="C115" t="n">
-        <v>31.59</v>
+        <v>31.4</v>
       </c>
       <c r="D115" t="n">
-        <v>31.59</v>
+        <v>31.55</v>
       </c>
       <c r="E115" t="n">
-        <v>31.59</v>
+        <v>31.4</v>
       </c>
       <c r="F115" t="n">
-        <v>4820.9738</v>
+        <v>14075.4047</v>
       </c>
       <c r="G115" t="n">
-        <v>31.64033333333332</v>
+        <v>31.63466666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,19 +4423,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>31.6</v>
+        <v>31.59</v>
       </c>
       <c r="C116" t="n">
-        <v>31.6</v>
+        <v>31.59</v>
       </c>
       <c r="D116" t="n">
-        <v>31.6</v>
+        <v>31.59</v>
       </c>
       <c r="E116" t="n">
-        <v>31.6</v>
+        <v>31.59</v>
       </c>
       <c r="F116" t="n">
-        <v>49796.646</v>
+        <v>4820.9738</v>
       </c>
       <c r="G116" t="n">
         <v>31.64033333333332</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="C117" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="D117" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="E117" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="F117" t="n">
         <v>49796.646</v>
       </c>
       <c r="G117" t="n">
-        <v>31.63699999999999</v>
+        <v>31.64033333333332</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>31.41</v>
+        <v>31.7</v>
       </c>
       <c r="C118" t="n">
-        <v>31.41</v>
+        <v>31.4</v>
       </c>
       <c r="D118" t="n">
-        <v>31.41</v>
+        <v>31.7</v>
       </c>
       <c r="E118" t="n">
-        <v>31.41</v>
+        <v>31.4</v>
       </c>
       <c r="F118" t="n">
-        <v>5774.3014</v>
+        <v>49796.646</v>
       </c>
       <c r="G118" t="n">
-        <v>31.63383333333333</v>
+        <v>31.63699999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>31.4</v>
+        <v>31.41</v>
       </c>
       <c r="C119" t="n">
-        <v>31.4</v>
+        <v>31.41</v>
       </c>
       <c r="D119" t="n">
-        <v>31.4</v>
+        <v>31.41</v>
       </c>
       <c r="E119" t="n">
-        <v>31.4</v>
+        <v>31.41</v>
       </c>
       <c r="F119" t="n">
-        <v>100</v>
+        <v>5774.3014</v>
       </c>
       <c r="G119" t="n">
-        <v>31.628</v>
+        <v>31.63383333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>31.86</v>
+        <v>31.4</v>
       </c>
       <c r="C120" t="n">
-        <v>31.86</v>
+        <v>31.4</v>
       </c>
       <c r="D120" t="n">
-        <v>31.86</v>
+        <v>31.4</v>
       </c>
       <c r="E120" t="n">
-        <v>31.86</v>
+        <v>31.4</v>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>31.62983333333333</v>
+        <v>31.628</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>31.5</v>
+        <v>31.86</v>
       </c>
       <c r="C121" t="n">
-        <v>32.07</v>
+        <v>31.86</v>
       </c>
       <c r="D121" t="n">
-        <v>32.07</v>
+        <v>31.86</v>
       </c>
       <c r="E121" t="n">
-        <v>31.33</v>
+        <v>31.86</v>
       </c>
       <c r="F121" t="n">
-        <v>152000</v>
+        <v>20</v>
       </c>
       <c r="G121" t="n">
-        <v>31.63516666666666</v>
+        <v>31.62983333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
       <c r="C122" t="n">
-        <v>31.9</v>
+        <v>32.07</v>
       </c>
       <c r="D122" t="n">
-        <v>31.9</v>
+        <v>32.07</v>
       </c>
       <c r="E122" t="n">
-        <v>31.9</v>
+        <v>31.33</v>
       </c>
       <c r="F122" t="n">
-        <v>1527.802</v>
+        <v>152000</v>
       </c>
       <c r="G122" t="n">
-        <v>31.63766666666666</v>
+        <v>31.63516666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C123" t="n">
-        <v>32.07</v>
+        <v>31.9</v>
       </c>
       <c r="D123" t="n">
-        <v>32.07</v>
+        <v>31.9</v>
       </c>
       <c r="E123" t="n">
-        <v>31.33</v>
+        <v>31.9</v>
       </c>
       <c r="F123" t="n">
-        <v>76033</v>
+        <v>1527.802</v>
       </c>
       <c r="G123" t="n">
-        <v>31.64283333333333</v>
+        <v>31.63766666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>31.99</v>
+        <v>32</v>
       </c>
       <c r="C124" t="n">
-        <v>31.99</v>
+        <v>32.07</v>
       </c>
       <c r="D124" t="n">
-        <v>31.99</v>
+        <v>32.07</v>
       </c>
       <c r="E124" t="n">
-        <v>31.99</v>
+        <v>31.33</v>
       </c>
       <c r="F124" t="n">
-        <v>3188.1175</v>
+        <v>76033</v>
       </c>
       <c r="G124" t="n">
-        <v>31.64666666666666</v>
+        <v>31.64283333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4750,10 +4750,10 @@
         <v>31.99</v>
       </c>
       <c r="F125" t="n">
-        <v>66.0262</v>
+        <v>3188.1175</v>
       </c>
       <c r="G125" t="n">
-        <v>31.6505</v>
+        <v>31.64666666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>31.8</v>
+        <v>31.99</v>
       </c>
       <c r="C126" t="n">
-        <v>31.7</v>
+        <v>31.99</v>
       </c>
       <c r="D126" t="n">
-        <v>31.8</v>
+        <v>31.99</v>
       </c>
       <c r="E126" t="n">
-        <v>31.7</v>
+        <v>31.99</v>
       </c>
       <c r="F126" t="n">
-        <v>34554.7768</v>
+        <v>66.0262</v>
       </c>
       <c r="G126" t="n">
-        <v>31.6495</v>
+        <v>31.6505</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4811,19 +4811,19 @@
         <v>31.8</v>
       </c>
       <c r="C127" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="D127" t="n">
         <v>31.8</v>
       </c>
       <c r="E127" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="F127" t="n">
-        <v>10090.0939</v>
+        <v>34554.7768</v>
       </c>
       <c r="G127" t="n">
-        <v>31.65016666666666</v>
+        <v>31.6495</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="C128" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="D128" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="E128" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="F128" t="n">
-        <v>21711.2031</v>
+        <v>10090.0939</v>
       </c>
       <c r="G128" t="n">
-        <v>31.64916666666666</v>
+        <v>31.65016666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="C129" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="D129" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="E129" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="F129" t="n">
-        <v>1399.156</v>
+        <v>21711.2031</v>
       </c>
       <c r="G129" t="n">
-        <v>31.64983333333333</v>
+        <v>31.64916666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="C130" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="D130" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="E130" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="F130" t="n">
-        <v>2517.6927</v>
+        <v>1399.156</v>
       </c>
       <c r="G130" t="n">
-        <v>31.65216666666667</v>
+        <v>31.64983333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4951,19 +4951,19 @@
         <v>31.9</v>
       </c>
       <c r="C131" t="n">
-        <v>32.09</v>
+        <v>31.9</v>
       </c>
       <c r="D131" t="n">
-        <v>32.09</v>
+        <v>31.9</v>
       </c>
       <c r="E131" t="n">
         <v>31.9</v>
       </c>
       <c r="F131" t="n">
-        <v>188237.1048</v>
+        <v>2517.6927</v>
       </c>
       <c r="G131" t="n">
-        <v>31.65766666666666</v>
+        <v>31.65216666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>32.09</v>
+        <v>31.9</v>
       </c>
       <c r="C132" t="n">
         <v>32.09</v>
@@ -4992,13 +4992,13 @@
         <v>32.09</v>
       </c>
       <c r="E132" t="n">
-        <v>32.09</v>
+        <v>31.9</v>
       </c>
       <c r="F132" t="n">
-        <v>18810.5544</v>
+        <v>188237.1048</v>
       </c>
       <c r="G132" t="n">
-        <v>31.66583333333333</v>
+        <v>31.65766666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>31.9</v>
+        <v>32.09</v>
       </c>
       <c r="C133" t="n">
-        <v>31.9</v>
+        <v>32.09</v>
       </c>
       <c r="D133" t="n">
-        <v>31.9</v>
+        <v>32.09</v>
       </c>
       <c r="E133" t="n">
-        <v>31.9</v>
+        <v>32.09</v>
       </c>
       <c r="F133" t="n">
-        <v>1486.1679</v>
+        <v>18810.5544</v>
       </c>
       <c r="G133" t="n">
-        <v>31.67616666666667</v>
+        <v>31.66583333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5065,10 +5065,10 @@
         <v>31.9</v>
       </c>
       <c r="F134" t="n">
-        <v>2980.2578</v>
+        <v>1486.1679</v>
       </c>
       <c r="G134" t="n">
-        <v>31.6845</v>
+        <v>31.67616666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C135" t="n">
-        <v>32.09</v>
+        <v>31.9</v>
       </c>
       <c r="D135" t="n">
-        <v>32.09</v>
+        <v>31.9</v>
       </c>
       <c r="E135" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="F135" t="n">
-        <v>41618.6401</v>
+        <v>2980.2578</v>
       </c>
       <c r="G135" t="n">
-        <v>31.69599999999999</v>
+        <v>31.6845</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>32.09</v>
+        <v>32</v>
       </c>
       <c r="C136" t="n">
         <v>32.09</v>
@@ -5132,13 +5132,13 @@
         <v>32.09</v>
       </c>
       <c r="E136" t="n">
-        <v>32.09</v>
+        <v>32</v>
       </c>
       <c r="F136" t="n">
-        <v>17892.8949828607</v>
+        <v>41618.6401</v>
       </c>
       <c r="G136" t="n">
-        <v>31.70749999999999</v>
+        <v>31.69599999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,28 +5158,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>31.9</v>
+        <v>32.09</v>
       </c>
       <c r="C137" t="n">
-        <v>31.9</v>
+        <v>32.09</v>
       </c>
       <c r="D137" t="n">
-        <v>31.9</v>
+        <v>32.09</v>
       </c>
       <c r="E137" t="n">
-        <v>31.9</v>
+        <v>32.09</v>
       </c>
       <c r="F137" t="n">
-        <v>50</v>
+        <v>17892.8949828607</v>
       </c>
       <c r="G137" t="n">
-        <v>31.71583333333333</v>
+        <v>31.70749999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5205,16 +5205,16 @@
         <v>31.9</v>
       </c>
       <c r="F138" t="n">
-        <v>1419.7548</v>
+        <v>50</v>
       </c>
       <c r="G138" t="n">
-        <v>31.72416666666666</v>
+        <v>31.71583333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="C139" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="D139" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="E139" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="F139" t="n">
-        <v>32940.5711</v>
+        <v>1419.7548</v>
       </c>
       <c r="G139" t="n">
-        <v>31.71933333333333</v>
+        <v>31.72416666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>31.7</v>
       </c>
       <c r="F140" t="n">
-        <v>3689.415</v>
+        <v>32940.5711</v>
       </c>
       <c r="G140" t="n">
-        <v>31.71183333333333</v>
+        <v>31.71933333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5301,19 +5301,19 @@
         <v>31.7</v>
       </c>
       <c r="C141" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="D141" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="E141" t="n">
         <v>31.7</v>
       </c>
       <c r="F141" t="n">
-        <v>7498.6254</v>
+        <v>3689.415</v>
       </c>
       <c r="G141" t="n">
-        <v>31.71566666666666</v>
+        <v>31.71183333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="C142" t="n">
         <v>32</v>
@@ -5342,13 +5342,13 @@
         <v>32</v>
       </c>
       <c r="E142" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="F142" t="n">
-        <v>429.0981</v>
+        <v>7498.6254</v>
       </c>
       <c r="G142" t="n">
-        <v>31.71949999999999</v>
+        <v>31.71566666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>32</v>
       </c>
       <c r="F143" t="n">
-        <v>2671.3815</v>
+        <v>429.0981</v>
       </c>
       <c r="G143" t="n">
-        <v>31.73399999999999</v>
+        <v>31.71949999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>32.05</v>
+        <v>32</v>
       </c>
       <c r="C144" t="n">
-        <v>32.05</v>
+        <v>32</v>
       </c>
       <c r="D144" t="n">
-        <v>32.05</v>
+        <v>32</v>
       </c>
       <c r="E144" t="n">
-        <v>32.05</v>
+        <v>32</v>
       </c>
       <c r="F144" t="n">
-        <v>15.6007</v>
+        <v>2671.3815</v>
       </c>
       <c r="G144" t="n">
-        <v>31.74333333333333</v>
+        <v>31.73399999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>31.82</v>
+        <v>32.05</v>
       </c>
       <c r="C145" t="n">
-        <v>31.82</v>
+        <v>32.05</v>
       </c>
       <c r="D145" t="n">
-        <v>31.82</v>
+        <v>32.05</v>
       </c>
       <c r="E145" t="n">
-        <v>31.82</v>
+        <v>32.05</v>
       </c>
       <c r="F145" t="n">
-        <v>23933.3228</v>
+        <v>15.6007</v>
       </c>
       <c r="G145" t="n">
-        <v>31.74166666666666</v>
+        <v>31.74333333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5485,10 +5485,10 @@
         <v>31.82</v>
       </c>
       <c r="F146" t="n">
-        <v>132.226</v>
+        <v>23933.3228</v>
       </c>
       <c r="G146" t="n">
-        <v>31.73649999999999</v>
+        <v>31.74166666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5520,10 @@
         <v>31.82</v>
       </c>
       <c r="F147" t="n">
-        <v>3991.7033</v>
+        <v>132.226</v>
       </c>
       <c r="G147" t="n">
-        <v>31.73366666666665</v>
+        <v>31.73649999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,7 +5543,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>31.7</v>
+        <v>31.82</v>
       </c>
       <c r="C148" t="n">
         <v>31.82</v>
@@ -5552,13 +5552,13 @@
         <v>31.82</v>
       </c>
       <c r="E148" t="n">
-        <v>31.7</v>
+        <v>31.82</v>
       </c>
       <c r="F148" t="n">
-        <v>41.8542</v>
+        <v>3991.7033</v>
       </c>
       <c r="G148" t="n">
-        <v>31.73083333333332</v>
+        <v>31.73366666666665</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="C149" t="n">
-        <v>31.8</v>
+        <v>31.82</v>
       </c>
       <c r="D149" t="n">
-        <v>31.8</v>
+        <v>31.82</v>
       </c>
       <c r="E149" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="F149" t="n">
-        <v>750.6276</v>
+        <v>41.8542</v>
       </c>
       <c r="G149" t="n">
-        <v>31.73249999999998</v>
+        <v>31.73083333333332</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="C150" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="D150" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="E150" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="F150" t="n">
         <v>750.6276</v>
       </c>
       <c r="G150" t="n">
-        <v>31.73749999999999</v>
+        <v>31.73249999999998</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         <v>31.9</v>
       </c>
       <c r="F151" t="n">
-        <v>809</v>
+        <v>750.6276</v>
       </c>
       <c r="G151" t="n">
-        <v>31.74249999999999</v>
+        <v>31.73749999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>32.05</v>
+        <v>31.9</v>
       </c>
       <c r="C152" t="n">
-        <v>32.05</v>
+        <v>31.9</v>
       </c>
       <c r="D152" t="n">
-        <v>32.05</v>
+        <v>31.9</v>
       </c>
       <c r="E152" t="n">
-        <v>32.05</v>
+        <v>31.9</v>
       </c>
       <c r="F152" t="n">
-        <v>35721.8012</v>
+        <v>809</v>
       </c>
       <c r="G152" t="n">
-        <v>31.74999999999999</v>
+        <v>31.74249999999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>31.9</v>
+        <v>32.05</v>
       </c>
       <c r="C153" t="n">
-        <v>31.8</v>
+        <v>32.05</v>
       </c>
       <c r="D153" t="n">
-        <v>31.9</v>
+        <v>32.05</v>
       </c>
       <c r="E153" t="n">
-        <v>31.8</v>
+        <v>32.05</v>
       </c>
       <c r="F153" t="n">
-        <v>21544.3322</v>
+        <v>35721.8012</v>
       </c>
       <c r="G153" t="n">
-        <v>31.75333333333332</v>
+        <v>31.74999999999999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="C154" t="n">
         <v>31.8</v>
       </c>
       <c r="D154" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="E154" t="n">
         <v>31.8</v>
       </c>
       <c r="F154" t="n">
-        <v>10000</v>
+        <v>21544.3322</v>
       </c>
       <c r="G154" t="n">
-        <v>31.75666666666666</v>
+        <v>31.75333333333332</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>32.05</v>
+        <v>31.8</v>
       </c>
       <c r="C155" t="n">
-        <v>32.05</v>
+        <v>31.8</v>
       </c>
       <c r="D155" t="n">
-        <v>32.05</v>
+        <v>31.8</v>
       </c>
       <c r="E155" t="n">
-        <v>32.05</v>
+        <v>31.8</v>
       </c>
       <c r="F155" t="n">
-        <v>1315.3835</v>
+        <v>10000</v>
       </c>
       <c r="G155" t="n">
-        <v>31.76416666666666</v>
+        <v>31.75666666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5826,19 +5826,19 @@
         <v>32.05</v>
       </c>
       <c r="C156" t="n">
-        <v>31.81</v>
+        <v>32.05</v>
       </c>
       <c r="D156" t="n">
         <v>32.05</v>
       </c>
       <c r="E156" t="n">
-        <v>31.81</v>
+        <v>32.05</v>
       </c>
       <c r="F156" t="n">
-        <v>55944.21</v>
+        <v>1315.3835</v>
       </c>
       <c r="G156" t="n">
-        <v>31.76799999999999</v>
+        <v>31.76416666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="C157" t="n">
         <v>31.81</v>
       </c>
-      <c r="C157" t="n">
-        <v>31.8</v>
-      </c>
       <c r="D157" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="E157" t="n">
         <v>31.81</v>
       </c>
-      <c r="E157" t="n">
-        <v>31.8</v>
-      </c>
       <c r="F157" t="n">
-        <v>3601.2345</v>
+        <v>55944.21</v>
       </c>
       <c r="G157" t="n">
-        <v>31.77166666666666</v>
+        <v>31.76799999999999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>31.81</v>
+      </c>
+      <c r="C158" t="n">
         <v>31.8</v>
       </c>
-      <c r="C158" t="n">
-        <v>31.7</v>
-      </c>
       <c r="D158" t="n">
+        <v>31.81</v>
+      </c>
+      <c r="E158" t="n">
         <v>31.8</v>
       </c>
-      <c r="E158" t="n">
-        <v>31.7</v>
-      </c>
       <c r="F158" t="n">
-        <v>149119.5008</v>
+        <v>3601.2345</v>
       </c>
       <c r="G158" t="n">
-        <v>31.77583333333332</v>
+        <v>31.77166666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5931,19 +5931,19 @@
         <v>31.8</v>
       </c>
       <c r="C159" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="D159" t="n">
         <v>31.8</v>
       </c>
       <c r="E159" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="F159" t="n">
-        <v>10341.2133</v>
+        <v>149119.5008</v>
       </c>
       <c r="G159" t="n">
-        <v>31.78333333333332</v>
+        <v>31.77583333333332</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="C160" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="D160" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="E160" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="F160" t="n">
-        <v>5851.5927</v>
+        <v>10341.2133</v>
       </c>
       <c r="G160" t="n">
-        <v>31.78833333333332</v>
+        <v>31.78333333333332</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6010,10 +6010,10 @@
         <v>31.7</v>
       </c>
       <c r="F161" t="n">
-        <v>26530.9922</v>
+        <v>5851.5927</v>
       </c>
       <c r="G161" t="n">
-        <v>31.79416666666666</v>
+        <v>31.78833333333332</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6045,10 +6045,10 @@
         <v>31.7</v>
       </c>
       <c r="F162" t="n">
-        <v>967.5373</v>
+        <v>26530.9922</v>
       </c>
       <c r="G162" t="n">
-        <v>31.79916666666666</v>
+        <v>31.79416666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="C163" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="D163" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="E163" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="F163" t="n">
-        <v>33497.6612</v>
+        <v>967.5373</v>
       </c>
       <c r="G163" t="n">
-        <v>31.80083333333333</v>
+        <v>31.79916666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6115,10 @@
         <v>31.5</v>
       </c>
       <c r="F164" t="n">
-        <v>3579.6149</v>
+        <v>33497.6612</v>
       </c>
       <c r="G164" t="n">
-        <v>31.80333333333333</v>
+        <v>31.80083333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>31.33</v>
+        <v>31.5</v>
       </c>
       <c r="C165" t="n">
-        <v>31.31</v>
+        <v>31.5</v>
       </c>
       <c r="D165" t="n">
-        <v>31.33</v>
+        <v>31.5</v>
       </c>
       <c r="E165" t="n">
-        <v>31.31</v>
+        <v>31.5</v>
       </c>
       <c r="F165" t="n">
-        <v>35684.8072</v>
+        <v>3579.6149</v>
       </c>
       <c r="G165" t="n">
-        <v>31.80399999999999</v>
+        <v>31.80333333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>31.31</v>
+        <v>31.33</v>
       </c>
       <c r="C166" t="n">
         <v>31.31</v>
       </c>
       <c r="D166" t="n">
-        <v>31.31</v>
+        <v>31.33</v>
       </c>
       <c r="E166" t="n">
         <v>31.31</v>
       </c>
       <c r="F166" t="n">
-        <v>13647</v>
+        <v>35684.8072</v>
       </c>
       <c r="G166" t="n">
-        <v>31.79099999999999</v>
+        <v>31.80399999999999</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>31.27</v>
+        <v>31.31</v>
       </c>
       <c r="C167" t="n">
-        <v>31.2</v>
+        <v>31.31</v>
       </c>
       <c r="D167" t="n">
-        <v>31.27</v>
+        <v>31.31</v>
       </c>
       <c r="E167" t="n">
-        <v>31.2</v>
+        <v>31.31</v>
       </c>
       <c r="F167" t="n">
-        <v>29549.2963</v>
+        <v>13647</v>
       </c>
       <c r="G167" t="n">
-        <v>31.78899999999999</v>
+        <v>31.79099999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="C168" t="n">
         <v>31.2</v>
       </c>
-      <c r="C168" t="n">
-        <v>31.08</v>
-      </c>
       <c r="D168" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="E168" t="n">
         <v>31.2</v>
       </c>
-      <c r="E168" t="n">
-        <v>31.08</v>
-      </c>
       <c r="F168" t="n">
-        <v>69062.43180000001</v>
+        <v>29549.2963</v>
       </c>
       <c r="G168" t="n">
-        <v>31.78516666666666</v>
+        <v>31.78899999999999</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C169" t="n">
         <v>31.08</v>
       </c>
-      <c r="C169" t="n">
-        <v>30.74</v>
-      </c>
       <c r="D169" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E169" t="n">
         <v>31.08</v>
       </c>
-      <c r="E169" t="n">
-        <v>30.74</v>
-      </c>
       <c r="F169" t="n">
-        <v>237415.1491</v>
+        <v>69062.43180000001</v>
       </c>
       <c r="G169" t="n">
-        <v>31.76599999999999</v>
+        <v>31.78516666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>31.08</v>
+      </c>
+      <c r="C170" t="n">
         <v>30.74</v>
       </c>
-      <c r="C170" t="n">
-        <v>30.7</v>
-      </c>
       <c r="D170" t="n">
-        <v>30.9</v>
+        <v>31.08</v>
       </c>
       <c r="E170" t="n">
-        <v>30.7</v>
+        <v>30.74</v>
       </c>
       <c r="F170" t="n">
-        <v>381266.3463</v>
+        <v>237415.1491</v>
       </c>
       <c r="G170" t="n">
-        <v>31.74616666666666</v>
+        <v>31.76599999999999</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>30.8</v>
+        <v>30.74</v>
       </c>
       <c r="C171" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="D171" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="E171" t="n">
         <v>30.7</v>
       </c>
       <c r="F171" t="n">
-        <v>65295.1137</v>
+        <v>381266.3463</v>
       </c>
       <c r="G171" t="n">
-        <v>31.72799999999999</v>
+        <v>31.74616666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>30.79</v>
+        <v>30.8</v>
       </c>
       <c r="C172" t="n">
         <v>30.8</v>
@@ -6392,13 +6392,13 @@
         <v>30.8</v>
       </c>
       <c r="E172" t="n">
-        <v>30.79</v>
+        <v>30.7</v>
       </c>
       <c r="F172" t="n">
-        <v>25000</v>
+        <v>65295.1137</v>
       </c>
       <c r="G172" t="n">
-        <v>31.71016666666666</v>
+        <v>31.72799999999999</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>30.7</v>
+        <v>30.79</v>
       </c>
       <c r="C173" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="D173" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="E173" t="n">
-        <v>30.7</v>
+        <v>30.79</v>
       </c>
       <c r="F173" t="n">
-        <v>76977.9819</v>
+        <v>25000</v>
       </c>
       <c r="G173" t="n">
-        <v>31.69033333333332</v>
+        <v>31.71016666666666</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>30.68</v>
+        <v>30.7</v>
       </c>
       <c r="C174" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="D174" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="E174" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="F174" t="n">
-        <v>48378.22915941558</v>
+        <v>76977.9819</v>
       </c>
       <c r="G174" t="n">
-        <v>31.67699999999999</v>
+        <v>31.69033333333332</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="C175" t="n">
         <v>30.6</v>
       </c>
-      <c r="C175" t="n">
-        <v>30.58</v>
-      </c>
       <c r="D175" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E175" t="n">
         <v>30.6</v>
       </c>
-      <c r="E175" t="n">
-        <v>30.58</v>
-      </c>
       <c r="F175" t="n">
-        <v>16611.154</v>
+        <v>48378.22915941558</v>
       </c>
       <c r="G175" t="n">
-        <v>31.66016666666665</v>
+        <v>31.67699999999999</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>30.59</v>
+        <v>30.6</v>
       </c>
       <c r="C176" t="n">
-        <v>30.59</v>
+        <v>30.58</v>
       </c>
       <c r="D176" t="n">
-        <v>30.59</v>
+        <v>30.6</v>
       </c>
       <c r="E176" t="n">
-        <v>30.57</v>
+        <v>30.58</v>
       </c>
       <c r="F176" t="n">
-        <v>44298.9178</v>
+        <v>16611.154</v>
       </c>
       <c r="G176" t="n">
-        <v>31.64333333333332</v>
+        <v>31.66016666666665</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>30.57</v>
+        <v>30.59</v>
       </c>
       <c r="C177" t="n">
-        <v>30.57</v>
+        <v>30.59</v>
       </c>
       <c r="D177" t="n">
-        <v>30.57</v>
+        <v>30.59</v>
       </c>
       <c r="E177" t="n">
         <v>30.57</v>
       </c>
       <c r="F177" t="n">
-        <v>2932.2006</v>
+        <v>44298.9178</v>
       </c>
       <c r="G177" t="n">
-        <v>31.62949999999999</v>
+        <v>31.64333333333332</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>30.56</v>
+        <v>30.57</v>
       </c>
       <c r="C178" t="n">
-        <v>30.45</v>
+        <v>30.57</v>
       </c>
       <c r="D178" t="n">
-        <v>30.56</v>
+        <v>30.57</v>
       </c>
       <c r="E178" t="n">
-        <v>30.45</v>
+        <v>30.57</v>
       </c>
       <c r="F178" t="n">
-        <v>25478.4598</v>
+        <v>2932.2006</v>
       </c>
       <c r="G178" t="n">
-        <v>31.61349999999998</v>
+        <v>31.62949999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>30.46</v>
+        <v>30.56</v>
       </c>
       <c r="C179" t="n">
         <v>30.45</v>
       </c>
       <c r="D179" t="n">
-        <v>30.46</v>
+        <v>30.56</v>
       </c>
       <c r="E179" t="n">
         <v>30.45</v>
       </c>
       <c r="F179" t="n">
-        <v>12010.653</v>
+        <v>25478.4598</v>
       </c>
       <c r="G179" t="n">
-        <v>31.59766666666665</v>
+        <v>31.61349999999998</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>30.36</v>
+        <v>30.46</v>
       </c>
       <c r="C180" t="n">
-        <v>30.36</v>
+        <v>30.45</v>
       </c>
       <c r="D180" t="n">
-        <v>30.36</v>
+        <v>30.46</v>
       </c>
       <c r="E180" t="n">
-        <v>30.36</v>
+        <v>30.45</v>
       </c>
       <c r="F180" t="n">
-        <v>14726.7323</v>
+        <v>12010.653</v>
       </c>
       <c r="G180" t="n">
-        <v>31.57266666666665</v>
+        <v>31.59766666666665</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6710,23 +6710,19 @@
         <v>30.36</v>
       </c>
       <c r="F181" t="n">
-        <v>7127.8049</v>
+        <v>14726.7323</v>
       </c>
       <c r="G181" t="n">
-        <v>31.54416666666665</v>
+        <v>31.57266666666665</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="K181" t="n">
-        <v>30.36</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
@@ -6740,19 +6736,19 @@
         <v>30.36</v>
       </c>
       <c r="C182" t="n">
-        <v>30.31</v>
+        <v>30.36</v>
       </c>
       <c r="D182" t="n">
         <v>30.36</v>
       </c>
       <c r="E182" t="n">
-        <v>30.31</v>
+        <v>30.36</v>
       </c>
       <c r="F182" t="n">
-        <v>14124.1428914361</v>
+        <v>7127.8049</v>
       </c>
       <c r="G182" t="n">
-        <v>31.51766666666665</v>
+        <v>31.54416666666665</v>
       </c>
       <c r="H182" t="n">
         <v>1</v>
@@ -6766,54 +6762,50 @@
       <c r="K182" t="n">
         <v>30.36</v>
       </c>
-      <c r="L182" t="inlineStr">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>30.36</v>
+      </c>
+      <c r="C183" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="D183" t="n">
+        <v>30.36</v>
+      </c>
+      <c r="E183" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="F183" t="n">
+        <v>14124.1428914361</v>
+      </c>
+      <c r="G183" t="n">
+        <v>31.51766666666665</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>30.36</v>
+      </c>
+      <c r="K183" t="n">
+        <v>30.36</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>30.31</v>
-      </c>
-      <c r="C183" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="D183" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="E183" t="n">
-        <v>30.31</v>
-      </c>
-      <c r="F183" t="n">
-        <v>64331.4089085639</v>
-      </c>
-      <c r="G183" t="n">
-        <v>31.49299999999998</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>30.31</v>
-      </c>
-      <c r="K183" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6823,22 +6815,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>30.8</v>
+        <v>30.31</v>
       </c>
       <c r="C184" t="n">
-        <v>31.18</v>
+        <v>30.59</v>
       </c>
       <c r="D184" t="n">
-        <v>31.18</v>
+        <v>30.59</v>
       </c>
       <c r="E184" t="n">
-        <v>30.8</v>
+        <v>30.31</v>
       </c>
       <c r="F184" t="n">
-        <v>26898.24599191789</v>
+        <v>64331.4089085639</v>
       </c>
       <c r="G184" t="n">
-        <v>31.47949999999998</v>
+        <v>31.49299999999998</v>
       </c>
       <c r="H184" t="n">
         <v>1</v>
@@ -6847,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>30.59</v>
+        <v>30.31</v>
       </c>
       <c r="K184" t="n">
         <v>30.36</v>
@@ -6866,22 +6858,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>31.17</v>
+        <v>30.8</v>
       </c>
       <c r="C185" t="n">
-        <v>31.17</v>
+        <v>31.18</v>
       </c>
       <c r="D185" t="n">
-        <v>31.17</v>
+        <v>31.18</v>
       </c>
       <c r="E185" t="n">
-        <v>31.17</v>
+        <v>30.8</v>
       </c>
       <c r="F185" t="n">
-        <v>9159.394700000001</v>
+        <v>26898.24599191789</v>
       </c>
       <c r="G185" t="n">
-        <v>31.46583333333331</v>
+        <v>31.47949999999998</v>
       </c>
       <c r="H185" t="n">
         <v>1</v>
@@ -6890,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>31.18</v>
+        <v>30.59</v>
       </c>
       <c r="K185" t="n">
         <v>30.36</v>
@@ -6921,10 +6913,10 @@
         <v>31.17</v>
       </c>
       <c r="F186" t="n">
-        <v>6187.8114</v>
+        <v>9159.394700000001</v>
       </c>
       <c r="G186" t="n">
-        <v>31.45699999999998</v>
+        <v>31.46583333333331</v>
       </c>
       <c r="H186" t="n">
         <v>1</v>
@@ -6933,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>31.17</v>
+        <v>31.18</v>
       </c>
       <c r="K186" t="n">
         <v>30.36</v>
@@ -6952,22 +6944,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>31.16</v>
+        <v>31.17</v>
       </c>
       <c r="C187" t="n">
-        <v>31.16</v>
+        <v>31.17</v>
       </c>
       <c r="D187" t="n">
-        <v>31.16</v>
+        <v>31.17</v>
       </c>
       <c r="E187" t="n">
-        <v>31.16</v>
+        <v>31.17</v>
       </c>
       <c r="F187" t="n">
-        <v>383.1638</v>
+        <v>6187.8114</v>
       </c>
       <c r="G187" t="n">
-        <v>31.44633333333332</v>
+        <v>31.45699999999998</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6993,22 +6985,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>30.99</v>
+        <v>31.16</v>
       </c>
       <c r="C188" t="n">
-        <v>30.99</v>
+        <v>31.16</v>
       </c>
       <c r="D188" t="n">
-        <v>30.99</v>
+        <v>31.16</v>
       </c>
       <c r="E188" t="n">
-        <v>30.99</v>
+        <v>31.16</v>
       </c>
       <c r="F188" t="n">
-        <v>5471.9606</v>
+        <v>383.1638</v>
       </c>
       <c r="G188" t="n">
-        <v>31.43449999999998</v>
+        <v>31.44633333333332</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7034,22 +7026,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>30.8</v>
+        <v>30.99</v>
       </c>
       <c r="C189" t="n">
-        <v>30.8</v>
+        <v>30.99</v>
       </c>
       <c r="D189" t="n">
-        <v>30.8</v>
+        <v>30.99</v>
       </c>
       <c r="E189" t="n">
-        <v>30.8</v>
+        <v>30.99</v>
       </c>
       <c r="F189" t="n">
-        <v>46772.3288</v>
+        <v>5471.9606</v>
       </c>
       <c r="G189" t="n">
-        <v>31.41783333333332</v>
+        <v>31.43449999999998</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7078,19 +7070,19 @@
         <v>30.8</v>
       </c>
       <c r="C190" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="D190" t="n">
         <v>30.8</v>
       </c>
       <c r="E190" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="F190" t="n">
-        <v>11266.6548</v>
+        <v>46772.3288</v>
       </c>
       <c r="G190" t="n">
-        <v>31.39783333333332</v>
+        <v>31.41783333333332</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7119,19 +7111,19 @@
         <v>30.8</v>
       </c>
       <c r="C191" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="D191" t="n">
         <v>30.8</v>
       </c>
       <c r="E191" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="F191" t="n">
-        <v>4909.8918</v>
+        <v>11266.6548</v>
       </c>
       <c r="G191" t="n">
-        <v>31.37633333333332</v>
+        <v>31.39783333333332</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7160,19 +7152,19 @@
         <v>30.8</v>
       </c>
       <c r="C192" t="n">
-        <v>30.59</v>
+        <v>30.8</v>
       </c>
       <c r="D192" t="n">
         <v>30.8</v>
       </c>
       <c r="E192" t="n">
-        <v>30.59</v>
+        <v>30.8</v>
       </c>
       <c r="F192" t="n">
-        <v>29827.7881</v>
+        <v>4909.8918</v>
       </c>
       <c r="G192" t="n">
-        <v>31.35133333333332</v>
+        <v>31.37633333333332</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7198,22 +7190,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C193" t="n">
         <v>30.59</v>
       </c>
-      <c r="C193" t="n">
-        <v>30.57</v>
-      </c>
       <c r="D193" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E193" t="n">
         <v>30.59</v>
       </c>
-      <c r="E193" t="n">
-        <v>30.57</v>
-      </c>
       <c r="F193" t="n">
-        <v>16326.7669</v>
+        <v>29827.7881</v>
       </c>
       <c r="G193" t="n">
-        <v>31.32916666666665</v>
+        <v>31.35133333333332</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7239,22 +7231,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>30.57</v>
+        <v>30.59</v>
       </c>
       <c r="C194" t="n">
         <v>30.57</v>
       </c>
       <c r="D194" t="n">
-        <v>30.57</v>
+        <v>30.59</v>
       </c>
       <c r="E194" t="n">
         <v>30.57</v>
       </c>
       <c r="F194" t="n">
-        <v>296.0154</v>
+        <v>16326.7669</v>
       </c>
       <c r="G194" t="n">
-        <v>31.30699999999998</v>
+        <v>31.32916666666665</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7280,7 +7272,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>30.5</v>
+        <v>30.57</v>
       </c>
       <c r="C195" t="n">
         <v>30.57</v>
@@ -7289,13 +7281,13 @@
         <v>30.57</v>
       </c>
       <c r="E195" t="n">
-        <v>30.5</v>
+        <v>30.57</v>
       </c>
       <c r="F195" t="n">
-        <v>36.0665</v>
+        <v>296.0154</v>
       </c>
       <c r="G195" t="n">
-        <v>31.28166666666664</v>
+        <v>31.30699999999998</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7321,10 +7313,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C196" t="n">
         <v>30.57</v>
-      </c>
-      <c r="C196" t="n">
-        <v>30.5</v>
       </c>
       <c r="D196" t="n">
         <v>30.57</v>
@@ -7333,10 +7325,10 @@
         <v>30.5</v>
       </c>
       <c r="F196" t="n">
-        <v>19150.2831</v>
+        <v>36.0665</v>
       </c>
       <c r="G196" t="n">
-        <v>31.25516666666665</v>
+        <v>31.28166666666664</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7362,22 +7354,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>30.56</v>
+        <v>30.57</v>
       </c>
       <c r="C197" t="n">
-        <v>30.56</v>
+        <v>30.5</v>
       </c>
       <c r="D197" t="n">
-        <v>30.56</v>
+        <v>30.57</v>
       </c>
       <c r="E197" t="n">
-        <v>30.56</v>
+        <v>30.5</v>
       </c>
       <c r="F197" t="n">
-        <v>10562.188</v>
+        <v>19150.2831</v>
       </c>
       <c r="G197" t="n">
-        <v>31.23283333333331</v>
+        <v>31.25516666666665</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7415,10 +7407,10 @@
         <v>30.56</v>
       </c>
       <c r="F198" t="n">
-        <v>4437.812</v>
+        <v>10562.188</v>
       </c>
       <c r="G198" t="n">
-        <v>31.21049999999997</v>
+        <v>31.23283333333331</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7456,10 +7448,10 @@
         <v>30.56</v>
       </c>
       <c r="F199" t="n">
-        <v>1143.9524</v>
+        <v>4437.812</v>
       </c>
       <c r="G199" t="n">
-        <v>31.19149999999997</v>
+        <v>31.21049999999997</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7497,10 +7489,10 @@
         <v>30.56</v>
       </c>
       <c r="F200" t="n">
-        <v>32690.9574</v>
+        <v>1143.9524</v>
       </c>
       <c r="G200" t="n">
-        <v>31.17249999999997</v>
+        <v>31.19149999999997</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7526,22 +7518,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>30.57</v>
+        <v>30.56</v>
       </c>
       <c r="C201" t="n">
-        <v>30.59</v>
+        <v>30.56</v>
       </c>
       <c r="D201" t="n">
-        <v>30.59</v>
+        <v>30.56</v>
       </c>
       <c r="E201" t="n">
-        <v>30.57</v>
+        <v>30.56</v>
       </c>
       <c r="F201" t="n">
-        <v>28420.7903</v>
+        <v>32690.9574</v>
       </c>
       <c r="G201" t="n">
-        <v>31.14899999999997</v>
+        <v>31.17249999999997</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7567,7 +7559,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>30.59</v>
+        <v>30.57</v>
       </c>
       <c r="C202" t="n">
         <v>30.59</v>
@@ -7576,13 +7568,13 @@
         <v>30.59</v>
       </c>
       <c r="E202" t="n">
-        <v>30.59</v>
+        <v>30.57</v>
       </c>
       <c r="F202" t="n">
-        <v>8823.2179</v>
+        <v>28420.7903</v>
       </c>
       <c r="G202" t="n">
-        <v>31.12549999999997</v>
+        <v>31.14899999999997</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7608,22 +7600,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>30.7</v>
+        <v>30.59</v>
       </c>
       <c r="C203" t="n">
-        <v>30.7</v>
+        <v>30.59</v>
       </c>
       <c r="D203" t="n">
-        <v>30.7</v>
+        <v>30.59</v>
       </c>
       <c r="E203" t="n">
-        <v>30.7</v>
+        <v>30.59</v>
       </c>
       <c r="F203" t="n">
-        <v>3644.1416</v>
+        <v>8823.2179</v>
       </c>
       <c r="G203" t="n">
-        <v>31.1038333333333</v>
+        <v>31.12549999999997</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7661,10 +7653,10 @@
         <v>30.7</v>
       </c>
       <c r="F204" t="n">
-        <v>1557.3544</v>
+        <v>3644.1416</v>
       </c>
       <c r="G204" t="n">
-        <v>31.0813333333333</v>
+        <v>31.1038333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7690,7 +7682,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>30.59</v>
+        <v>30.7</v>
       </c>
       <c r="C205" t="n">
         <v>30.7</v>
@@ -7699,13 +7691,13 @@
         <v>30.7</v>
       </c>
       <c r="E205" t="n">
-        <v>30.57</v>
+        <v>30.7</v>
       </c>
       <c r="F205" t="n">
-        <v>68874.63529999999</v>
+        <v>1557.3544</v>
       </c>
       <c r="G205" t="n">
-        <v>31.06266666666664</v>
+        <v>31.0813333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7731,22 +7723,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="C206" t="n">
         <v>30.7</v>
-      </c>
-      <c r="C206" t="n">
-        <v>30.45</v>
       </c>
       <c r="D206" t="n">
         <v>30.7</v>
       </c>
       <c r="E206" t="n">
-        <v>30.45</v>
+        <v>30.57</v>
       </c>
       <c r="F206" t="n">
-        <v>54078.3513</v>
+        <v>68874.63529999999</v>
       </c>
       <c r="G206" t="n">
-        <v>31.03983333333331</v>
+        <v>31.06266666666664</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7772,22 +7764,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>30.45</v>
+        <v>30.7</v>
       </c>
       <c r="C207" t="n">
         <v>30.45</v>
       </c>
       <c r="D207" t="n">
-        <v>30.45</v>
+        <v>30.7</v>
       </c>
       <c r="E207" t="n">
         <v>30.45</v>
       </c>
       <c r="F207" t="n">
-        <v>4538.6036</v>
+        <v>54078.3513</v>
       </c>
       <c r="G207" t="n">
-        <v>31.01699999999998</v>
+        <v>31.03983333333331</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7825,10 +7817,10 @@
         <v>30.45</v>
       </c>
       <c r="F208" t="n">
-        <v>2885.9792</v>
+        <v>4538.6036</v>
       </c>
       <c r="G208" t="n">
-        <v>30.99416666666665</v>
+        <v>31.01699999999998</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7854,22 +7846,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>30.3</v>
+        <v>30.45</v>
       </c>
       <c r="C209" t="n">
-        <v>30.3</v>
+        <v>30.45</v>
       </c>
       <c r="D209" t="n">
-        <v>30.3</v>
+        <v>30.45</v>
       </c>
       <c r="E209" t="n">
-        <v>30.3</v>
+        <v>30.45</v>
       </c>
       <c r="F209" t="n">
-        <v>11791.2718</v>
+        <v>2885.9792</v>
       </c>
       <c r="G209" t="n">
-        <v>30.96916666666664</v>
+        <v>30.99416666666665</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7895,22 +7887,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>30.24</v>
+        <v>30.3</v>
       </c>
       <c r="C210" t="n">
-        <v>30.16</v>
+        <v>30.3</v>
       </c>
       <c r="D210" t="n">
-        <v>30.24</v>
+        <v>30.3</v>
       </c>
       <c r="E210" t="n">
-        <v>30.16</v>
+        <v>30.3</v>
       </c>
       <c r="F210" t="n">
-        <v>32807.6261</v>
+        <v>11791.2718</v>
       </c>
       <c r="G210" t="n">
-        <v>30.94016666666665</v>
+        <v>30.96916666666664</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7936,22 +7928,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>30.17</v>
+        <v>30.24</v>
       </c>
       <c r="C211" t="n">
-        <v>30.7</v>
+        <v>30.16</v>
       </c>
       <c r="D211" t="n">
-        <v>30.7</v>
+        <v>30.24</v>
       </c>
       <c r="E211" t="n">
-        <v>30.17</v>
+        <v>30.16</v>
       </c>
       <c r="F211" t="n">
-        <v>318</v>
+        <v>32807.6261</v>
       </c>
       <c r="G211" t="n">
-        <v>30.92016666666665</v>
+        <v>30.94016666666665</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7977,7 +7969,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>30.6</v>
+        <v>30.17</v>
       </c>
       <c r="C212" t="n">
         <v>30.7</v>
@@ -7986,13 +7978,13 @@
         <v>30.7</v>
       </c>
       <c r="E212" t="n">
-        <v>30.6</v>
+        <v>30.17</v>
       </c>
       <c r="F212" t="n">
-        <v>28662.0353</v>
+        <v>318</v>
       </c>
       <c r="G212" t="n">
-        <v>30.89766666666664</v>
+        <v>30.92016666666665</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8021,19 +8013,19 @@
         <v>30.6</v>
       </c>
       <c r="C213" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="D213" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="E213" t="n">
         <v>30.6</v>
       </c>
       <c r="F213" t="n">
-        <v>2800</v>
+        <v>28662.0353</v>
       </c>
       <c r="G213" t="n">
-        <v>30.87766666666665</v>
+        <v>30.89766666666664</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8054,6 +8046,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C214" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E214" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G214" t="n">
+        <v>30.87766666666665</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>30.36</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-20 BackTest FCT.xlsx
+++ b/BackTest/2020-01-20 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:N224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>5035.4668</v>
       </c>
       <c r="G2" t="n">
+        <v>32.46666666666665</v>
+      </c>
+      <c r="H2" t="n">
         <v>32.92350000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>26320.5256</v>
       </c>
       <c r="G3" t="n">
+        <v>32.50733333333331</v>
+      </c>
+      <c r="H3" t="n">
         <v>32.91216666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>21779.4752</v>
       </c>
       <c r="G4" t="n">
+        <v>32.54799999999998</v>
+      </c>
+      <c r="H4" t="n">
         <v>32.90083333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>25575.5214</v>
       </c>
       <c r="G5" t="n">
+        <v>32.58799999999998</v>
+      </c>
+      <c r="H5" t="n">
         <v>32.88950000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>74325.32000000001</v>
       </c>
       <c r="G6" t="n">
+        <v>32.62799999999998</v>
+      </c>
+      <c r="H6" t="n">
         <v>32.87833333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>155002.6525</v>
       </c>
       <c r="G7" t="n">
+        <v>32.67066666666665</v>
+      </c>
+      <c r="H7" t="n">
         <v>32.8675</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>44927.7272</v>
       </c>
       <c r="G8" t="n">
+        <v>32.71199999999997</v>
+      </c>
+      <c r="H8" t="n">
         <v>32.85666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>30459.6313161876</v>
       </c>
       <c r="G9" t="n">
+        <v>32.75466666666664</v>
+      </c>
+      <c r="H9" t="n">
         <v>32.84583333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>15676.0312</v>
       </c>
       <c r="G10" t="n">
+        <v>32.79733333333331</v>
+      </c>
+      <c r="H10" t="n">
         <v>32.835</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>81846.36410000001</v>
       </c>
       <c r="G11" t="n">
+        <v>32.83866666666665</v>
+      </c>
+      <c r="H11" t="n">
         <v>32.82233333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>5558.3031</v>
       </c>
       <c r="G12" t="n">
+        <v>32.87866666666665</v>
+      </c>
+      <c r="H12" t="n">
         <v>32.80883333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>116286.5129</v>
       </c>
       <c r="G13" t="n">
+        <v>32.88799999999998</v>
+      </c>
+      <c r="H13" t="n">
         <v>32.79816666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>77698.2212</v>
       </c>
       <c r="G14" t="n">
+        <v>32.88199999999998</v>
+      </c>
+      <c r="H14" t="n">
         <v>32.77433333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>33240.3579</v>
       </c>
       <c r="G15" t="n">
+        <v>32.88199999999998</v>
+      </c>
+      <c r="H15" t="n">
         <v>32.76433333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>17757.0097</v>
       </c>
       <c r="G16" t="n">
+        <v>32.85266666666665</v>
+      </c>
+      <c r="H16" t="n">
         <v>32.74533333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2964.2538</v>
       </c>
       <c r="G17" t="n">
+        <v>32.79666666666665</v>
+      </c>
+      <c r="H17" t="n">
         <v>32.73549999999999</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>12581.0193</v>
       </c>
       <c r="G18" t="n">
+        <v>32.73266666666665</v>
+      </c>
+      <c r="H18" t="n">
         <v>32.72566666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>6117.5745</v>
       </c>
       <c r="G19" t="n">
+        <v>32.70266666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>32.72566666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>23160.2324</v>
       </c>
       <c r="G20" t="n">
+        <v>32.64466666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>32.70216666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>4000</v>
       </c>
       <c r="G21" t="n">
+        <v>32.60599999999999</v>
+      </c>
+      <c r="H21" t="n">
         <v>32.68366666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>45145.0358</v>
       </c>
       <c r="G22" t="n">
+        <v>32.54666666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>32.65966666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>147572.452</v>
       </c>
       <c r="G23" t="n">
+        <v>32.48666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>32.63550000000001</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>6306.3477</v>
       </c>
       <c r="G24" t="n">
+        <v>32.42666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>32.62033333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>48788.7229</v>
       </c>
       <c r="G25" t="n">
+        <v>32.35866666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>32.61066666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>3526.2736</v>
       </c>
       <c r="G26" t="n">
+        <v>32.29666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>32.60150000000001</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>5882.1863</v>
       </c>
       <c r="G27" t="n">
+        <v>32.23466666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>32.5915</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>34143.5991</v>
       </c>
       <c r="G28" t="n">
+        <v>32.20666666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>32.58216666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>22831.886</v>
       </c>
       <c r="G29" t="n">
+        <v>32.18666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>32.561</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>80825.8593</v>
       </c>
       <c r="G30" t="n">
+        <v>32.19133333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>32.549</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>15247.5912</v>
       </c>
       <c r="G31" t="n">
+        <v>32.194</v>
+      </c>
+      <c r="H31" t="n">
         <v>32.52916666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>5923.1005</v>
       </c>
       <c r="G32" t="n">
+        <v>32.19733333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>32.51266666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>88511.5233</v>
       </c>
       <c r="G33" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="H33" t="n">
         <v>32.49433333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>2920.8158</v>
       </c>
       <c r="G34" t="n">
+        <v>32.16866666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>32.48516666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>235915.977</v>
       </c>
       <c r="G35" t="n">
+        <v>32.14533333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>32.4715</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>315013.9313</v>
       </c>
       <c r="G36" t="n">
+        <v>32.082</v>
+      </c>
+      <c r="H36" t="n">
         <v>32.45283333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>39318.9013</v>
       </c>
       <c r="G37" t="n">
+        <v>32.038</v>
+      </c>
+      <c r="H37" t="n">
         <v>32.43616666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>58519.581</v>
       </c>
       <c r="G38" t="n">
+        <v>31.988</v>
+      </c>
+      <c r="H38" t="n">
         <v>32.41783333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>98673.46739999999</v>
       </c>
       <c r="G39" t="n">
+        <v>31.92200000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>32.3955</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>35520.3515</v>
       </c>
       <c r="G40" t="n">
+        <v>31.85533333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>32.36166666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>319454.8304</v>
       </c>
       <c r="G41" t="n">
+        <v>31.78400000000001</v>
+      </c>
+      <c r="H41" t="n">
         <v>32.33716666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>1285.1104</v>
       </c>
       <c r="G42" t="n">
+        <v>31.71266666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>32.31266666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>7000</v>
       </c>
       <c r="G43" t="n">
+        <v>31.64333333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>32.2895</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>3000</v>
       </c>
       <c r="G44" t="n">
+        <v>31.616</v>
+      </c>
+      <c r="H44" t="n">
         <v>32.27733333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>19559.1157</v>
       </c>
       <c r="G45" t="n">
+        <v>31.558</v>
+      </c>
+      <c r="H45" t="n">
         <v>32.26516666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>1725.9731</v>
       </c>
       <c r="G46" t="n">
+        <v>31.50466666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>32.24633333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>47531.5333</v>
       </c>
       <c r="G47" t="n">
+        <v>31.45733333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>32.22949999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1465.165</v>
       </c>
       <c r="G48" t="n">
+        <v>31.40066666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>32.21016666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>13721.5499</v>
       </c>
       <c r="G49" t="n">
+        <v>31.344</v>
+      </c>
+      <c r="H49" t="n">
         <v>32.19083333333332</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>21613.5334</v>
       </c>
       <c r="G50" t="n">
+        <v>31.30733333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>32.17133333333332</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>5871.8535</v>
       </c>
       <c r="G51" t="n">
+        <v>31.29066666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>32.15166666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>155.5910543130991</v>
       </c>
       <c r="G52" t="n">
+        <v>31.27733333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>32.13316666666665</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>992.3522456869009</v>
       </c>
       <c r="G53" t="n">
+        <v>31.27066666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>32.11433333333332</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>1305.6224</v>
       </c>
       <c r="G54" t="n">
+        <v>31.28666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>32.09749999999999</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>2297.9746</v>
       </c>
       <c r="G55" t="n">
+        <v>31.31133333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>32.08066666666665</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>14196.729</v>
       </c>
       <c r="G56" t="n">
+        <v>31.326</v>
+      </c>
+      <c r="H56" t="n">
         <v>32.06133333333332</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>5430.8298</v>
       </c>
       <c r="G57" t="n">
+        <v>31.364</v>
+      </c>
+      <c r="H57" t="n">
         <v>32.04749999999999</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>7688.3601</v>
       </c>
       <c r="G58" t="n">
+        <v>31.39666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>32.03366666666665</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>46.1887</v>
       </c>
       <c r="G59" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="H59" t="n">
         <v>32.01866666666665</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>2506.0466</v>
       </c>
       <c r="G60" t="n">
+        <v>31.39333333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>32.00616666666664</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>3953.4797</v>
       </c>
       <c r="G61" t="n">
+        <v>31.42333333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>31.99366666666664</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>4788.9843</v>
       </c>
       <c r="G62" t="n">
+        <v>31.44666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>31.97449999999998</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>13113.3322</v>
       </c>
       <c r="G63" t="n">
+        <v>31.48000000000001</v>
+      </c>
+      <c r="H63" t="n">
         <v>31.95333333333331</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>20.3226</v>
       </c>
       <c r="G64" t="n">
+        <v>31.51400000000001</v>
+      </c>
+      <c r="H64" t="n">
         <v>31.93233333333331</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>295.2732</v>
       </c>
       <c r="G65" t="n">
+        <v>31.54800000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>31.91133333333331</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>198.7214</v>
       </c>
       <c r="G66" t="n">
+        <v>31.582</v>
+      </c>
+      <c r="H66" t="n">
         <v>31.89016666666664</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>596.6946</v>
       </c>
       <c r="G67" t="n">
+        <v>31.61266666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>31.86866666666664</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>631.0651</v>
       </c>
       <c r="G68" t="n">
+        <v>31.64333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>31.84716666666665</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>236.8069</v>
       </c>
       <c r="G69" t="n">
+        <v>31.66733333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>31.82566666666665</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>257.8481</v>
       </c>
       <c r="G70" t="n">
+        <v>31.69133333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>31.80416666666665</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>225.7542</v>
       </c>
       <c r="G71" t="n">
+        <v>31.72533333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>31.78299999999998</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>4477.5413</v>
       </c>
       <c r="G72" t="n">
+        <v>31.736</v>
+      </c>
+      <c r="H72" t="n">
         <v>31.76183333333331</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>6449.9808</v>
       </c>
       <c r="G73" t="n">
+        <v>31.736</v>
+      </c>
+      <c r="H73" t="n">
         <v>31.74566666666665</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>77316.6395</v>
       </c>
       <c r="G74" t="n">
+        <v>31.71466666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>31.72683333333331</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>10991.607</v>
       </c>
       <c r="G75" t="n">
+        <v>31.69133333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>31.70849999999998</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>3000</v>
       </c>
       <c r="G76" t="n">
+        <v>31.668</v>
+      </c>
+      <c r="H76" t="n">
         <v>31.69749999999998</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>1000</v>
       </c>
       <c r="G77" t="n">
+        <v>31.64466666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>31.68649999999998</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>889.6172</v>
       </c>
       <c r="G78" t="n">
+        <v>31.62133333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>31.67549999999999</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>45.0713</v>
       </c>
       <c r="G79" t="n">
+        <v>31.59733333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>31.65599999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>20000</v>
       </c>
       <c r="G80" t="n">
+        <v>31.61266666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>31.65333333333332</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>9140000</v>
       </c>
       <c r="G81" t="n">
+        <v>31.63866666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>31.64833333333332</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>800276.7988</v>
       </c>
       <c r="G82" t="n">
+        <v>31.63933333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>31.64183333333332</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>658668.5107</v>
       </c>
       <c r="G83" t="n">
+        <v>31.63999999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>31.63549999999999</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>4500000</v>
       </c>
       <c r="G84" t="n">
+        <v>31.598</v>
+      </c>
+      <c r="H84" t="n">
         <v>31.61849999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>5082382.497469882</v>
       </c>
       <c r="G85" t="n">
+        <v>31.57999999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>31.60949999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>8787188.388599999</v>
       </c>
       <c r="G86" t="n">
+        <v>31.59066666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>31.60649999999999</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>6450487.6717</v>
       </c>
       <c r="G87" t="n">
+        <v>31.61533333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>31.60699999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>38.8074</v>
       </c>
       <c r="G88" t="n">
+        <v>31.64133333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>31.60433333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>59.1522</v>
       </c>
       <c r="G89" t="n">
+        <v>31.68866666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>31.60233333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>20362.8966</v>
       </c>
       <c r="G90" t="n">
+        <v>31.70866666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>31.58783333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>39.2597</v>
       </c>
       <c r="G91" t="n">
+        <v>31.722</v>
+      </c>
+      <c r="H91" t="n">
         <v>31.5795</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>1094.937</v>
       </c>
       <c r="G92" t="n">
+        <v>31.73533333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>31.57099999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>101.4561</v>
       </c>
       <c r="G93" t="n">
+        <v>31.74866666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>31.56266666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>4663.1673</v>
       </c>
       <c r="G94" t="n">
+        <v>31.76200000000001</v>
+      </c>
+      <c r="H94" t="n">
         <v>31.55433333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>3188.7875</v>
       </c>
       <c r="G95" t="n">
+        <v>31.73600000000001</v>
+      </c>
+      <c r="H95" t="n">
         <v>31.55099999999999</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>629.2111</v>
       </c>
       <c r="G96" t="n">
+        <v>31.69933333333335</v>
+      </c>
+      <c r="H96" t="n">
         <v>31.55266666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>212.5647</v>
       </c>
       <c r="G97" t="n">
+        <v>31.68666666666668</v>
+      </c>
+      <c r="H97" t="n">
         <v>31.55399999999999</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>34738.2455</v>
       </c>
       <c r="G98" t="n">
+        <v>31.67400000000001</v>
+      </c>
+      <c r="H98" t="n">
         <v>31.55699999999999</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>574.0779</v>
       </c>
       <c r="G99" t="n">
+        <v>31.69533333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>31.56183333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>60000</v>
       </c>
       <c r="G100" t="n">
+        <v>31.68600000000001</v>
+      </c>
+      <c r="H100" t="n">
         <v>31.56716666666665</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>5612.7236</v>
       </c>
       <c r="G101" t="n">
+        <v>31.65133333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>31.57333333333332</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>1178.6618</v>
       </c>
       <c r="G102" t="n">
+        <v>31.59933333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>31.57866666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>3315.2958</v>
       </c>
       <c r="G103" t="n">
+        <v>31.56000000000001</v>
+      </c>
+      <c r="H103" t="n">
         <v>31.58349999999999</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>6667.1398</v>
       </c>
       <c r="G104" t="n">
+        <v>31.52066666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>31.57849999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>905.9434</v>
       </c>
       <c r="G105" t="n">
+        <v>31.49733333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>31.57266666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>15756.2871</v>
       </c>
       <c r="G106" t="n">
+        <v>31.47533333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>31.57216666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>31300</v>
       </c>
       <c r="G107" t="n">
+        <v>31.50800000000001</v>
+      </c>
+      <c r="H107" t="n">
         <v>31.58366666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>1500</v>
       </c>
       <c r="G108" t="n">
+        <v>31.48933333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>31.58483333333332</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>193481.3556</v>
       </c>
       <c r="G109" t="n">
+        <v>31.47000000000001</v>
+      </c>
+      <c r="H109" t="n">
         <v>31.58583333333332</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>16</v>
       </c>
       <c r="G110" t="n">
+        <v>31.48933333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>31.59649999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>30</v>
       </c>
       <c r="G111" t="n">
+        <v>31.50866666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>31.60716666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>33</v>
       </c>
       <c r="G112" t="n">
+        <v>31.52933333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>31.61699999999999</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>33</v>
       </c>
       <c r="G113" t="n">
+        <v>31.54866666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>31.62649999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>1000</v>
       </c>
       <c r="G114" t="n">
+        <v>31.578</v>
+      </c>
+      <c r="H114" t="n">
         <v>31.63466666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>14075.4047</v>
       </c>
       <c r="G115" t="n">
+        <v>31.58133333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>31.63466666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>4820.9738</v>
       </c>
       <c r="G116" t="n">
+        <v>31.594</v>
+      </c>
+      <c r="H116" t="n">
         <v>31.64033333333332</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>49796.646</v>
       </c>
       <c r="G117" t="n">
+        <v>31.61066666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>31.64033333333332</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>49796.646</v>
       </c>
       <c r="G118" t="n">
+        <v>31.61066666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>31.63699999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>5774.3014</v>
       </c>
       <c r="G119" t="n">
+        <v>31.61133333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>31.63383333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>100</v>
       </c>
       <c r="G120" t="n">
+        <v>31.61466666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>31.628</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>20</v>
       </c>
       <c r="G121" t="n">
+        <v>31.654</v>
+      </c>
+      <c r="H121" t="n">
         <v>31.62983333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>152000</v>
       </c>
       <c r="G122" t="n">
+        <v>31.65266666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>31.63516666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>1527.802</v>
       </c>
       <c r="G123" t="n">
+        <v>31.69133333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>31.63766666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>76033</v>
       </c>
       <c r="G124" t="n">
+        <v>31.742</v>
+      </c>
+      <c r="H124" t="n">
         <v>31.64283333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>3188.1175</v>
       </c>
       <c r="G125" t="n">
+        <v>31.74866666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>31.64666666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>66.0262</v>
       </c>
       <c r="G126" t="n">
+        <v>31.75533333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>31.6505</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>34554.7768</v>
       </c>
       <c r="G127" t="n">
+        <v>31.74266666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>31.6495</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>10090.0939</v>
       </c>
       <c r="G128" t="n">
+        <v>31.738</v>
+      </c>
+      <c r="H128" t="n">
         <v>31.65016666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>21711.2031</v>
       </c>
       <c r="G129" t="n">
+        <v>31.72533333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>31.64916666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>1399.156</v>
       </c>
       <c r="G130" t="n">
+        <v>31.752</v>
+      </c>
+      <c r="H130" t="n">
         <v>31.64983333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>2517.6927</v>
       </c>
       <c r="G131" t="n">
+        <v>31.77266666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>31.65216666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>188237.1048</v>
       </c>
       <c r="G132" t="n">
+        <v>31.80533333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>31.65766666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>18810.5544</v>
       </c>
       <c r="G133" t="n">
+        <v>31.85133333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>31.66583333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>1486.1679</v>
       </c>
       <c r="G134" t="n">
+        <v>31.884</v>
+      </c>
+      <c r="H134" t="n">
         <v>31.67616666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>2980.2578</v>
       </c>
       <c r="G135" t="n">
+        <v>31.91733333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>31.6845</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>41618.6401</v>
       </c>
       <c r="G136" t="n">
+        <v>31.93266666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>31.69599999999999</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>17892.8949828607</v>
       </c>
       <c r="G137" t="n">
+        <v>31.934</v>
+      </c>
+      <c r="H137" t="n">
         <v>31.70749999999999</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>50</v>
       </c>
       <c r="G138" t="n">
+        <v>31.934</v>
+      </c>
+      <c r="H138" t="n">
         <v>31.71583333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>1419.7548</v>
       </c>
       <c r="G139" t="n">
+        <v>31.92266666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>31.72416666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>32940.5711</v>
       </c>
       <c r="G140" t="n">
+        <v>31.90333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>31.71933333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>3689.415</v>
       </c>
       <c r="G141" t="n">
+        <v>31.884</v>
+      </c>
+      <c r="H141" t="n">
         <v>31.71183333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>7498.6254</v>
       </c>
       <c r="G142" t="n">
+        <v>31.904</v>
+      </c>
+      <c r="H142" t="n">
         <v>31.71566666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>429.0981</v>
       </c>
       <c r="G143" t="n">
+        <v>31.91733333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>31.71949999999999</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>2671.3815</v>
       </c>
       <c r="G144" t="n">
+        <v>31.93733333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>31.73399999999999</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>15.6007</v>
       </c>
       <c r="G145" t="n">
+        <v>31.954</v>
+      </c>
+      <c r="H145" t="n">
         <v>31.74333333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>23933.3228</v>
       </c>
       <c r="G146" t="n">
+        <v>31.94866666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>31.74166666666666</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>132.226</v>
       </c>
       <c r="G147" t="n">
+        <v>31.93066666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>31.73649999999999</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>3991.7033</v>
       </c>
       <c r="G148" t="n">
+        <v>31.91266666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>31.73366666666665</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>41.8542</v>
       </c>
       <c r="G149" t="n">
+        <v>31.90733333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>31.73083333333332</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>750.6276</v>
       </c>
       <c r="G150" t="n">
+        <v>31.90066666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>31.73249999999998</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>750.6276</v>
       </c>
       <c r="G151" t="n">
+        <v>31.888</v>
+      </c>
+      <c r="H151" t="n">
         <v>31.73749999999999</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>809</v>
       </c>
       <c r="G152" t="n">
+        <v>31.87533333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>31.74249999999999</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>35721.8012</v>
       </c>
       <c r="G153" t="n">
+        <v>31.88533333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>31.74999999999999</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>21544.3322</v>
       </c>
       <c r="G154" t="n">
+        <v>31.87866666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>31.75333333333332</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>10000</v>
       </c>
       <c r="G155" t="n">
+        <v>31.88533333333334</v>
+      </c>
+      <c r="H155" t="n">
         <v>31.75666666666666</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>1315.3835</v>
       </c>
       <c r="G156" t="n">
+        <v>31.90866666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>31.76416666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>55944.21</v>
       </c>
       <c r="G157" t="n">
+        <v>31.89600000000001</v>
+      </c>
+      <c r="H157" t="n">
         <v>31.76799999999999</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>3601.2345</v>
       </c>
       <c r="G158" t="n">
+        <v>31.88266666666668</v>
+      </c>
+      <c r="H158" t="n">
         <v>31.77166666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>149119.5008</v>
       </c>
       <c r="G159" t="n">
+        <v>31.86266666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>31.77583333333332</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>10341.2133</v>
       </c>
       <c r="G160" t="n">
+        <v>31.84600000000001</v>
+      </c>
+      <c r="H160" t="n">
         <v>31.78333333333332</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>5851.5927</v>
       </c>
       <c r="G161" t="n">
+        <v>31.83800000000001</v>
+      </c>
+      <c r="H161" t="n">
         <v>31.78833333333332</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>26530.9922</v>
       </c>
       <c r="G162" t="n">
+        <v>31.83000000000001</v>
+      </c>
+      <c r="H162" t="n">
         <v>31.79416666666666</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>967.5373</v>
       </c>
       <c r="G163" t="n">
+        <v>31.82200000000001</v>
+      </c>
+      <c r="H163" t="n">
         <v>31.79916666666666</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>33497.6612</v>
       </c>
       <c r="G164" t="n">
+        <v>31.80066666666668</v>
+      </c>
+      <c r="H164" t="n">
         <v>31.80083333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>3579.6149</v>
       </c>
       <c r="G165" t="n">
+        <v>31.78066666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>31.80333333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>35684.8072</v>
       </c>
       <c r="G166" t="n">
+        <v>31.74133333333334</v>
+      </c>
+      <c r="H166" t="n">
         <v>31.80399999999999</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>13647</v>
       </c>
       <c r="G167" t="n">
+        <v>31.70200000000001</v>
+      </c>
+      <c r="H167" t="n">
         <v>31.79099999999999</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>29549.2963</v>
       </c>
       <c r="G168" t="n">
+        <v>31.64533333333334</v>
+      </c>
+      <c r="H168" t="n">
         <v>31.78899999999999</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,27 @@
         <v>69062.43180000001</v>
       </c>
       <c r="G169" t="n">
+        <v>31.59733333333334</v>
+      </c>
+      <c r="H169" t="n">
         <v>31.78516666666666</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>31.2</v>
+      </c>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6843,25 @@
         <v>237415.1491</v>
       </c>
       <c r="G170" t="n">
+        <v>31.52666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>31.76599999999999</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6885,25 @@
         <v>381266.3463</v>
       </c>
       <c r="G171" t="n">
+        <v>31.43666666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>31.74616666666666</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6927,27 @@
         <v>65295.1137</v>
       </c>
       <c r="G172" t="n">
+        <v>31.36933333333334</v>
+      </c>
+      <c r="H172" t="n">
         <v>31.72799999999999</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>30.7</v>
+      </c>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6971,27 @@
         <v>25000</v>
       </c>
       <c r="G173" t="n">
+        <v>31.30266666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>31.71016666666666</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>30.8</v>
+      </c>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7015,27 @@
         <v>76977.9819</v>
       </c>
       <c r="G174" t="n">
+        <v>31.236</v>
+      </c>
+      <c r="H174" t="n">
         <v>31.69033333333332</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>30.8</v>
+      </c>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7059,25 @@
         <v>48378.22915941558</v>
       </c>
       <c r="G175" t="n">
+        <v>31.15600000000001</v>
+      </c>
+      <c r="H175" t="n">
         <v>31.67699999999999</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7101,25 @@
         <v>16611.154</v>
       </c>
       <c r="G176" t="n">
+        <v>31.08133333333334</v>
+      </c>
+      <c r="H176" t="n">
         <v>31.66016666666665</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7143,25 @@
         <v>44298.9178</v>
       </c>
       <c r="G177" t="n">
+        <v>31.00733333333334</v>
+      </c>
+      <c r="H177" t="n">
         <v>31.64333333333332</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7185,25 @@
         <v>2932.2006</v>
       </c>
       <c r="G178" t="n">
+        <v>30.93200000000001</v>
+      </c>
+      <c r="H178" t="n">
         <v>31.62949999999999</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7227,25 @@
         <v>25478.4598</v>
       </c>
       <c r="G179" t="n">
+        <v>30.86200000000001</v>
+      </c>
+      <c r="H179" t="n">
         <v>31.61349999999998</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7269,25 @@
         <v>12010.653</v>
       </c>
       <c r="G180" t="n">
+        <v>30.79200000000001</v>
+      </c>
+      <c r="H180" t="n">
         <v>31.59766666666665</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7311,25 @@
         <v>14726.7323</v>
       </c>
       <c r="G181" t="n">
+        <v>30.72866666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>31.57266666666665</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,22 +7353,25 @@
         <v>7127.8049</v>
       </c>
       <c r="G182" t="n">
+        <v>30.66533333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>31.54416666666665</v>
       </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="K182" t="n">
-        <v>30.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6787,26 +7395,25 @@
         <v>14124.1428914361</v>
       </c>
       <c r="G183" t="n">
+        <v>30.60600000000001</v>
+      </c>
+      <c r="H183" t="n">
         <v>31.51766666666665</v>
       </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="K183" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L183" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6830,26 +7437,25 @@
         <v>64331.4089085639</v>
       </c>
       <c r="G184" t="n">
+        <v>30.57333333333334</v>
+      </c>
+      <c r="H184" t="n">
         <v>31.49299999999998</v>
       </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>30.31</v>
-      </c>
-      <c r="K184" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L184" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6873,26 +7479,25 @@
         <v>26898.24599191789</v>
       </c>
       <c r="G185" t="n">
+        <v>30.60266666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>31.47949999999998</v>
       </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="K185" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L185" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6916,26 +7521,25 @@
         <v>9159.394700000001</v>
       </c>
       <c r="G186" t="n">
+        <v>30.63400000000001</v>
+      </c>
+      <c r="H186" t="n">
         <v>31.46583333333331</v>
       </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>31.18</v>
-      </c>
-      <c r="K186" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L186" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6959,24 +7563,25 @@
         <v>6187.8114</v>
       </c>
       <c r="G187" t="n">
+        <v>30.65866666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>31.45699999999998</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7000,24 +7605,25 @@
         <v>383.1638</v>
       </c>
       <c r="G188" t="n">
+        <v>30.68266666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>31.44633333333332</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7041,24 +7647,25 @@
         <v>5471.9606</v>
       </c>
       <c r="G189" t="n">
+        <v>30.70200000000001</v>
+      </c>
+      <c r="H189" t="n">
         <v>31.43449999999998</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7082,24 +7689,25 @@
         <v>46772.3288</v>
       </c>
       <c r="G190" t="n">
+        <v>30.71533333333334</v>
+      </c>
+      <c r="H190" t="n">
         <v>31.41783333333332</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L190" t="inlineStr">
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7123,24 +7731,25 @@
         <v>11266.6548</v>
       </c>
       <c r="G191" t="n">
+        <v>30.72333333333334</v>
+      </c>
+      <c r="H191" t="n">
         <v>31.39783333333332</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L191" t="inlineStr">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7164,24 +7773,25 @@
         <v>4909.8918</v>
       </c>
       <c r="G192" t="n">
+        <v>30.73733333333335</v>
+      </c>
+      <c r="H192" t="n">
         <v>31.37633333333332</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7205,24 +7815,25 @@
         <v>29827.7881</v>
       </c>
       <c r="G193" t="n">
+        <v>30.73866666666668</v>
+      </c>
+      <c r="H193" t="n">
         <v>31.35133333333332</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7246,24 +7857,25 @@
         <v>16326.7669</v>
       </c>
       <c r="G194" t="n">
+        <v>30.74666666666668</v>
+      </c>
+      <c r="H194" t="n">
         <v>31.32916666666665</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7287,24 +7899,25 @@
         <v>296.0154</v>
       </c>
       <c r="G195" t="n">
+        <v>30.75466666666668</v>
+      </c>
+      <c r="H195" t="n">
         <v>31.30699999999998</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7328,24 +7941,25 @@
         <v>36.0665</v>
       </c>
       <c r="G196" t="n">
+        <v>30.76866666666668</v>
+      </c>
+      <c r="H196" t="n">
         <v>31.28166666666664</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7369,24 +7983,25 @@
         <v>19150.2831</v>
       </c>
       <c r="G197" t="n">
+        <v>30.77800000000001</v>
+      </c>
+      <c r="H197" t="n">
         <v>31.25516666666665</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7410,24 +8025,25 @@
         <v>10562.188</v>
       </c>
       <c r="G198" t="n">
+        <v>30.79466666666668</v>
+      </c>
+      <c r="H198" t="n">
         <v>31.23283333333331</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7451,24 +8067,25 @@
         <v>4437.812</v>
       </c>
       <c r="G199" t="n">
+        <v>30.79266666666668</v>
+      </c>
+      <c r="H199" t="n">
         <v>31.21049999999997</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7492,24 +8109,25 @@
         <v>1143.9524</v>
       </c>
       <c r="G200" t="n">
+        <v>30.75133333333334</v>
+      </c>
+      <c r="H200" t="n">
         <v>31.19149999999997</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7533,24 +8151,25 @@
         <v>32690.9574</v>
       </c>
       <c r="G201" t="n">
+        <v>30.71066666666668</v>
+      </c>
+      <c r="H201" t="n">
         <v>31.17249999999997</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7574,24 +8193,25 @@
         <v>28420.7903</v>
       </c>
       <c r="G202" t="n">
+        <v>30.67200000000001</v>
+      </c>
+      <c r="H202" t="n">
         <v>31.14899999999997</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7615,24 +8235,25 @@
         <v>8823.2179</v>
       </c>
       <c r="G203" t="n">
+        <v>30.634</v>
+      </c>
+      <c r="H203" t="n">
         <v>31.12549999999997</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7656,24 +8277,25 @@
         <v>3644.1416</v>
       </c>
       <c r="G204" t="n">
+        <v>30.61466666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>31.1038333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7697,24 +8319,25 @@
         <v>1557.3544</v>
       </c>
       <c r="G205" t="n">
+        <v>30.608</v>
+      </c>
+      <c r="H205" t="n">
         <v>31.0813333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7738,24 +8361,25 @@
         <v>68874.63529999999</v>
       </c>
       <c r="G206" t="n">
+        <v>30.608</v>
+      </c>
+      <c r="H206" t="n">
         <v>31.06266666666664</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7779,24 +8403,25 @@
         <v>54078.3513</v>
       </c>
       <c r="G207" t="n">
+        <v>30.58466666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>31.03983333333331</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7820,24 +8445,25 @@
         <v>4538.6036</v>
       </c>
       <c r="G208" t="n">
+        <v>30.57533333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>31.01699999999998</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7861,24 +8487,25 @@
         <v>2885.9792</v>
       </c>
       <c r="G209" t="n">
+        <v>30.56733333333333</v>
+      </c>
+      <c r="H209" t="n">
         <v>30.99416666666665</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7902,24 +8529,25 @@
         <v>11791.2718</v>
       </c>
       <c r="G210" t="n">
+        <v>30.54933333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>30.96916666666664</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7943,24 +8571,25 @@
         <v>32807.6261</v>
       </c>
       <c r="G211" t="n">
+        <v>30.522</v>
+      </c>
+      <c r="H211" t="n">
         <v>30.94016666666665</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7984,24 +8613,27 @@
         <v>318</v>
       </c>
       <c r="G212" t="n">
+        <v>30.53533333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>30.92016666666665</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L212" t="inlineStr">
+        <v>30.16</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8025,24 +8657,27 @@
         <v>28662.0353</v>
       </c>
       <c r="G213" t="n">
+        <v>30.54466666666667</v>
+      </c>
+      <c r="H213" t="n">
         <v>30.89766666666664</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L213" t="inlineStr">
+        <v>30.7</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8066,24 +8701,455 @@
         <v>2800</v>
       </c>
       <c r="G214" t="n">
+        <v>30.54733333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>30.87766666666665</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C215" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D215" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E215" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F215" t="n">
+        <v>27.4446</v>
+      </c>
+      <c r="G215" t="n">
+        <v>30.55</v>
+      </c>
+      <c r="H215" t="n">
+        <v>30.85766666666665</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="C216" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="D216" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="E216" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="F216" t="n">
+        <v>40.4096</v>
+      </c>
+      <c r="G216" t="n">
+        <v>30.57666666666667</v>
+      </c>
+      <c r="H216" t="n">
+        <v>30.83949999999998</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="C217" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="D217" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="E217" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="F217" t="n">
+        <v>11600.7188</v>
+      </c>
+      <c r="G217" t="n">
+        <v>30.57800000000001</v>
+      </c>
+      <c r="H217" t="n">
+        <v>30.81949999999998</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C218" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E218" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F218" t="n">
+        <v>32598.5216</v>
+      </c>
+      <c r="G218" t="n">
+        <v>30.57866666666667</v>
+      </c>
+      <c r="H218" t="n">
+        <v>30.79949999999998</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="C219" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="D219" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="E219" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="F219" t="n">
+        <v>20</v>
+      </c>
+      <c r="G219" t="n">
+        <v>30.59600000000001</v>
+      </c>
+      <c r="H219" t="n">
+        <v>30.78716666666664</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="C220" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D220" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="E220" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F220" t="n">
+        <v>8177.7486</v>
+      </c>
+      <c r="G220" t="n">
+        <v>30.56933333333334</v>
+      </c>
+      <c r="H220" t="n">
+        <v>30.76216666666664</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="C221" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="D221" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="E221" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="F221" t="n">
+        <v>677.5399</v>
+      </c>
+      <c r="G221" t="n">
+        <v>30.54333333333334</v>
+      </c>
+      <c r="H221" t="n">
+        <v>30.73899999999998</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="C222" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="D222" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="E222" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="F222" t="n">
+        <v>42373.5229</v>
+      </c>
+      <c r="G222" t="n">
+        <v>30.52266666666668</v>
+      </c>
+      <c r="H222" t="n">
+        <v>30.71299999999998</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C223" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="D223" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E223" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="F223" t="n">
+        <v>15239.9785</v>
+      </c>
+      <c r="G223" t="n">
+        <v>30.50200000000001</v>
+      </c>
+      <c r="H223" t="n">
+        <v>30.68699999999998</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C224" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D224" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E224" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F224" t="n">
+        <v>19</v>
+      </c>
+      <c r="G224" t="n">
+        <v>30.51866666666668</v>
+      </c>
+      <c r="H224" t="n">
+        <v>30.67366666666664</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-20 BackTest FCT.xlsx
+++ b/BackTest/2020-01-20 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,7 +880,7 @@
         <v>-201484.8213559485</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-262053.0509294777</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-235732.5253294777</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2926,10 +2926,14 @@
         <v>-260634.7283294777</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>32.06</v>
+      </c>
+      <c r="J77" t="n">
+        <v>32.06</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -2962,8 +2966,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>32.06</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3005,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>32.06</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3190,10 +3206,14 @@
         <v>-517774.8978294777</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>32.1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
@@ -3223,11 +3243,19 @@
         <v>-483631.2987294777</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3284,19 @@
         <v>-506463.1847294777</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>32.15</v>
+      </c>
+      <c r="J87" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3520,10 +3556,14 @@
         <v>-1074403.247729478</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>31.5</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
@@ -3553,11 +3593,19 @@
         <v>-1132922.828729478</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J96" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3634,19 @@
         <v>-1231596.296129478</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3675,19 @@
         <v>-1267116.647629478</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="J98" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3716,19 @@
         <v>-1267116.647629478</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="J99" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3757,19 @@
         <v>-1267116.647629478</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="J100" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3720,9 +3800,17 @@
       <c r="H101" t="n">
         <v>1</v>
       </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="J101" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3753,9 +3841,17 @@
       <c r="H102" t="n">
         <v>1</v>
       </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="J102" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3880,19 @@
         <v>-1257116.647629478</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="J103" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3921,19 @@
         <v>-1258842.620729478</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="J104" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3852,9 +3964,17 @@
       <c r="H105" t="n">
         <v>1</v>
       </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3885,9 +4005,17 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="J106" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3918,9 +4046,17 @@
       <c r="H107" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="J107" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4085,19 @@
         <v>-1212776.252429478</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="J108" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3984,9 +4128,17 @@
       <c r="H109" t="n">
         <v>1</v>
       </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="J109" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4017,9 +4169,17 @@
       <c r="H110" t="n">
         <v>1</v>
       </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="J110" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4050,9 +4210,17 @@
       <c r="H111" t="n">
         <v>1</v>
       </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4083,9 +4251,17 @@
       <c r="H112" t="n">
         <v>1</v>
       </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J112" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4290,17 @@
         <v>-1211315.038975165</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4329,17 @@
         <v>-1225511.767975165</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4368,17 @@
         <v>-1220080.938175165</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4407,17 @@
         <v>-1220080.938175165</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4446,17 @@
         <v>-1220080.938175165</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4485,17 @@
         <v>-1217574.891575165</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4524,17 @@
         <v>-1217574.891575165</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4563,17 @@
         <v>-1217574.891575165</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4602,17 @@
         <v>-1217574.891575165</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4641,17 @@
         <v>-1217554.568975165</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4683,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4722,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4761,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4800,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4839,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4878,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4917,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4956,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4995,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5034,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5073,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5112,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5151,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5190,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5229,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5268,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5304,17 @@
         <v>7869670.417724835</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5346,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5382,17 @@
         <v>7069393.618924835</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5424,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5463,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5502,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5541,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5580,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5619,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5658,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5697,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5736,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5775,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5814,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5853,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5892,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5931,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5970,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6009,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6048,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6087,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6126,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6165,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6204,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6243,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6282,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6321,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6360,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6399,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6438,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6477,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6516,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6555,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6594,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6633,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6672,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6711,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6750,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +6789,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6828,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6867,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6906,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +6945,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6984,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +7023,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +7062,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +7098,17 @@
         <v>22821815.51609472</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,13 +7137,19 @@
         <v>22831905.60999472</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L186" t="n">
-        <v>1</v>
+        <v>1.00452380952381</v>
       </c>
       <c r="M186" t="inlineStr"/>
     </row>
@@ -6556,7 +7176,7 @@
         <v>22810194.40689472</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +7209,7 @@
         <v>22811593.56289472</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +7242,7 @@
         <v>22814111.25559472</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +7275,7 @@
         <v>23002348.36039472</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +7308,7 @@
         <v>23002348.36039472</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +7341,7 @@
         <v>23000862.19249472</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +7374,7 @@
         <v>23000862.19249472</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +7407,7 @@
         <v>23042480.83259472</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +7440,7 @@
         <v>23042480.83259472</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +7473,7 @@
         <v>23042430.83259472</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +7506,7 @@
         <v>23042430.83259472</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +7539,7 @@
         <v>23009490.26149471</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +7572,7 @@
         <v>23009490.26149471</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +7605,7 @@
         <v>23016988.88689471</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7638,7 @@
         <v>23016988.88689471</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7671,7 @@
         <v>23016988.88689471</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7704,7 @@
         <v>23017004.48759471</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7737,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7770,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7803,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7836,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7869,7 @@
         <v>22992320.53719471</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7902,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7935,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7968,7 @@
         <v>23028792.96599471</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +8001,7 @@
         <v>23007248.63379471</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +8034,7 @@
         <v>23007248.63379471</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +8067,7 @@
         <v>23008564.01729471</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +8100,7 @@
         <v>22952619.80729471</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +8133,7 @@
         <v>22949018.57279471</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +8166,7 @@
         <v>22799899.07199471</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +8199,7 @@
         <v>22810240.28529472</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +8232,7 @@
         <v>22804388.69259471</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +8265,7 @@
         <v>22804388.69259471</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +8298,7 @@
         <v>22804388.69259471</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +8331,7 @@
         <v>22770891.03139471</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +8364,7 @@
         <v>22770891.03139471</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +8397,7 @@
         <v>22735206.22419471</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +8430,7 @@
         <v>22735206.22419471</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +8463,7 @@
         <v>22705656.92789471</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +8496,7 @@
         <v>22636594.49609471</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +8529,7 @@
         <v>22399179.34699471</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +8562,7 @@
         <v>22017913.00069471</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +8595,7 @@
         <v>22083208.11439471</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8628,7 @@
         <v>22083208.11439471</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8661,7 @@
         <v>22006230.13249471</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8694,7 @@
         <v>21957851.9033353</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8727,7 @@
         <v>21941240.7493353</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8760,7 @@
         <v>21985539.6671353</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8793,7 @@
         <v>21982607.4665353</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8826,7 @@
         <v>21957129.0067353</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8859,7 @@
         <v>21957129.0067353</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8892,7 @@
         <v>21942402.2744353</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8925,7 @@
         <v>21942402.2744353</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8958,7 @@
         <v>21928278.13154387</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8991,7 @@
         <v>21992609.54045243</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +9024,7 @@
         <v>22019507.78644435</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +9057,7 @@
         <v>22010348.39174435</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +9090,7 @@
         <v>22010348.39174435</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +9123,7 @@
         <v>22009965.22794435</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +9156,7 @@
         <v>22004493.26734435</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +9189,7 @@
         <v>21957720.93854435</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +9222,7 @@
         <v>21946454.28374435</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +9255,7 @@
         <v>21951364.17554435</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +9288,7 @@
         <v>21921536.38744435</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +9321,7 @@
         <v>21905209.62054435</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +9354,7 @@
         <v>21905209.62054435</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +9387,7 @@
         <v>21905209.62054435</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +9420,7 @@
         <v>21886059.33744435</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +9453,7 @@
         <v>21896621.52544435</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +9486,7 @@
         <v>21896621.52544435</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +9519,7 @@
         <v>21896621.52544435</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +9552,7 @@
         <v>21896621.52544435</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8967,12 +9587,8 @@
       <c r="H260" t="n">
         <v>2</v>
       </c>
-      <c r="I260" t="n">
-        <v>30.56</v>
-      </c>
-      <c r="J260" t="n">
-        <v>30.56</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
@@ -9005,14 +9621,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>30.56</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9044,14 +9654,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>30.56</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9080,7 +9684,7 @@
         <v>21928686.45734435</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9113,7 +9717,7 @@
         <v>21928686.45734435</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9146,7 +9750,7 @@
         <v>21874608.10604435</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9311,14 +9915,10 @@
         <v>21830327.20814435</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>30.16</v>
-      </c>
-      <c r="J270" t="n">
-        <v>30.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
@@ -9348,19 +9948,11 @@
         <v>21830327.20814435</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J271" t="n">
-        <v>30.16</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9389,19 +9981,11 @@
         <v>21827527.20814435</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J272" t="n">
-        <v>30.16</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9430,14 +10014,10 @@
         <v>21827527.20814435</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J273" t="n">
-        <v>30.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
@@ -9467,19 +10047,11 @@
         <v>21827567.61774435</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J274" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9508,19 +10080,11 @@
         <v>21815966.89894435</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>30.96</v>
-      </c>
-      <c r="J275" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9549,14 +10113,10 @@
         <v>21783368.37734435</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="J276" t="n">
-        <v>30.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
@@ -9586,19 +10146,11 @@
         <v>21783388.37734435</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J277" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9627,19 +10179,11 @@
         <v>21775210.62874435</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>30.96</v>
-      </c>
-      <c r="J278" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9668,19 +10212,11 @@
         <v>21775888.16864435</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J279" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9709,19 +10245,11 @@
         <v>21733514.64574435</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="n">
-        <v>30.31</v>
-      </c>
-      <c r="J280" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9750,19 +10278,11 @@
         <v>21733514.64574435</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="J281" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9791,25 +10311,17 @@
         <v>21733533.64574435</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="J282" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
       <c r="M282" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest FCT.xlsx
+++ b/BackTest/2020-01-20 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2926,14 +2926,10 @@
         <v>-260634.7283294777</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>32.06</v>
-      </c>
-      <c r="J77" t="n">
-        <v>32.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -2966,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>32.06</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3005,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>32.06</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3206,14 +3190,10 @@
         <v>-517774.8978294777</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>32.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
@@ -3243,19 +3223,11 @@
         <v>-483631.2987294777</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3284,19 +3256,11 @@
         <v>-506463.1847294777</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>32.15</v>
-      </c>
-      <c r="J87" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3556,14 +3520,10 @@
         <v>-1074403.247729478</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>31.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
@@ -3593,753 +3553,615 @@
         <v>-1132922.828729478</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J96" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C97" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="D97" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E97" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="F97" t="n">
+        <v>98673.46739999999</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1231596.296129478</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="C98" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="D98" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="E98" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="F98" t="n">
+        <v>35520.3515</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1267116.647629478</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="D99" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="F99" t="n">
+        <v>319454.8304</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1267116.647629478</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="C100" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="D100" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="E100" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1285.1104</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-1267116.647629478</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="C101" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="D101" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="E101" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="F101" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1260116.647629478</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C102" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D102" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="E102" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1257116.647629478</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C103" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D103" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="E103" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>19559.1157</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-1257116.647629478</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C104" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E104" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1725.9731</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1258842.620729478</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D105" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E105" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="F105" t="n">
+        <v>47531.5333</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1211311.087429478</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="C106" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="D106" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="E106" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1465.165</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-1212776.252429478</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="C107" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="D107" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="E107" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="F107" t="n">
+        <v>13721.5499</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1212776.252429478</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="C108" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="D108" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="E108" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="F108" t="n">
+        <v>21613.5334</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1212776.252429478</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="C109" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="D109" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="E109" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="F109" t="n">
+        <v>5871.8535</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1212776.252429478</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C110" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E110" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>155.5910543130991</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-1212620.661375165</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E111" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>992.3522456869009</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1212620.661375165</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C112" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D112" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E112" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1305.6224</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1211315.038975165</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C113" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D113" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2297.9746</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1211315.038975165</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="J113" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="D114" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="F114" t="n">
+        <v>14196.729</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-1225511.767975165</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="C97" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="D97" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="E97" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="F97" t="n">
-        <v>98673.46739999999</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-1231596.296129478</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="J97" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>31.15</v>
-      </c>
-      <c r="C98" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="D98" t="n">
-        <v>31.15</v>
-      </c>
-      <c r="E98" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="F98" t="n">
-        <v>35520.3515</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-1267116.647629478</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="J98" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="C99" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="D99" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="E99" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="F99" t="n">
-        <v>319454.8304</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-1267116.647629478</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="J99" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="C100" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="D100" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="E100" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1285.1104</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-1267116.647629478</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="J100" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>31.11</v>
-      </c>
-      <c r="C101" t="n">
-        <v>31.11</v>
-      </c>
-      <c r="D101" t="n">
-        <v>31.11</v>
-      </c>
-      <c r="E101" t="n">
-        <v>31.11</v>
-      </c>
-      <c r="F101" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-1260116.647629478</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="J101" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="C102" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="D102" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="E102" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F102" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-1257116.647629478</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>31.11</v>
-      </c>
-      <c r="J102" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="C103" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="D103" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="E103" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F103" t="n">
-        <v>19559.1157</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-1257116.647629478</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J103" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="C104" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="D104" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="E104" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1725.9731</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-1258842.620729478</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J104" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="C105" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D105" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="E105" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="F105" t="n">
-        <v>47531.5333</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-1211311.087429478</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="J105" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="C106" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="D106" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="E106" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1465.165</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-1212776.252429478</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="J106" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="C107" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="D107" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="E107" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="F107" t="n">
-        <v>13721.5499</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-1212776.252429478</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="J107" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="C108" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="D108" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="E108" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="F108" t="n">
-        <v>21613.5334</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-1212776.252429478</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="J108" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="C109" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="D109" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="E109" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="F109" t="n">
-        <v>5871.8535</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-1212776.252429478</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="J109" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="C110" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="D110" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="E110" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F110" t="n">
-        <v>155.5910543130991</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-1212620.661375165</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="J110" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="C111" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="D111" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="E111" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F111" t="n">
-        <v>992.3522456869009</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-1212620.661375165</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="J111" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="C112" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D112" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="E112" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1305.6224</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-1211315.038975165</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="J112" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="C113" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D113" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="E113" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2297.9746</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-1211315.038975165</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="C114" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="D114" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="E114" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="F114" t="n">
-        <v>14196.729</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-1225511.767975165</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4368,11 +4190,13 @@
         <v>-1220080.938175165</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>31.25</v>
+      </c>
       <c r="J115" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4411,7 +4235,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4450,7 +4274,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4489,7 +4313,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4528,7 +4352,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4567,7 +4391,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4606,7 +4430,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4645,7 +4469,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4684,7 +4508,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4723,7 +4547,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4762,7 +4586,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4801,7 +4625,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4840,7 +4664,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4879,7 +4703,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4918,7 +4742,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4957,7 +4781,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4996,7 +4820,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5035,7 +4859,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5074,7 +4898,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5113,7 +4937,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5152,7 +4976,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5191,7 +5015,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5230,7 +5054,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5269,7 +5093,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5308,7 +5132,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5347,7 +5171,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5386,7 +5210,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5425,7 +5249,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5464,7 +5288,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5503,7 +5327,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5538,19 +5362,19 @@
         <v>22889452.17669472</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1</v>
+        <v>1.018248407643312</v>
       </c>
       <c r="M145" t="inlineStr"/>
     </row>
@@ -5577,17 +5401,11 @@
         <v>22889413.36929472</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5616,17 +5434,11 @@
         <v>22889413.36929472</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5658,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5694,17 +5500,11 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5733,17 +5533,11 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5772,17 +5566,11 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5811,17 +5599,11 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5850,17 +5632,11 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5889,17 +5665,11 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5931,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5970,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6009,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6045,17 +5797,11 @@
         <v>22808224.57039472</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6084,17 +5830,11 @@
         <v>22813837.29399472</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6123,17 +5863,11 @@
         <v>22812658.63219472</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6162,17 +5896,11 @@
         <v>22815973.92799472</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6201,17 +5929,11 @@
         <v>22815973.92799472</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6240,17 +5962,11 @@
         <v>22815067.98459472</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6279,17 +5995,11 @@
         <v>22799311.69749472</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6321,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6357,17 +6061,11 @@
         <v>22829111.69749472</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6396,17 +6094,11 @@
         <v>22635630.34189472</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6435,17 +6127,11 @@
         <v>22635646.34189472</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6474,17 +6160,11 @@
         <v>22635646.34189472</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6513,17 +6193,11 @@
         <v>22635646.34189472</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6552,17 +6226,11 @@
         <v>22635613.34189472</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6591,17 +6259,11 @@
         <v>22636613.34189472</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6630,17 +6292,11 @@
         <v>22622537.93719472</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6669,17 +6325,11 @@
         <v>22627358.91099472</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6708,17 +6358,11 @@
         <v>22677155.55699472</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6747,17 +6391,11 @@
         <v>22627358.91099472</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6786,17 +6424,11 @@
         <v>22633133.21239472</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6825,17 +6457,11 @@
         <v>22633033.21239472</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6867,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6906,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6945,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6984,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7023,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7062,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7101,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7137,19 +6721,13 @@
         <v>22831905.60999472</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>1.00452380952381</v>
+        <v>1</v>
       </c>
       <c r="M186" t="inlineStr"/>
     </row>
@@ -7176,7 +6754,7 @@
         <v>22810194.40689472</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7209,7 +6787,7 @@
         <v>22811593.56289472</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7242,7 +6820,7 @@
         <v>22814111.25559472</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7275,7 +6853,7 @@
         <v>23002348.36039472</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7308,7 +6886,7 @@
         <v>23002348.36039472</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7341,7 +6919,7 @@
         <v>23000862.19249472</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7374,7 +6952,7 @@
         <v>23000862.19249472</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7407,7 +6985,7 @@
         <v>23042480.83259472</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7440,7 +7018,7 @@
         <v>23042480.83259472</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7473,7 +7051,7 @@
         <v>23042430.83259472</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7506,7 +7084,7 @@
         <v>23042430.83259472</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7539,7 +7117,7 @@
         <v>23009490.26149471</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7572,7 +7150,7 @@
         <v>23009490.26149471</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7605,7 +7183,7 @@
         <v>23016988.88689471</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7638,7 +7216,7 @@
         <v>23016988.88689471</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7770,7 +7348,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7869,7 +7447,7 @@
         <v>22992320.53719471</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7902,7 +7480,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7935,7 +7513,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8067,7 +7645,7 @@
         <v>23008564.01729471</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8166,7 +7744,7 @@
         <v>22799899.07199471</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8232,7 +7810,7 @@
         <v>22804388.69259471</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8265,7 +7843,7 @@
         <v>22804388.69259471</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8298,7 +7876,7 @@
         <v>22804388.69259471</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8331,7 +7909,7 @@
         <v>22770891.03139471</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8364,7 +7942,7 @@
         <v>22770891.03139471</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8397,7 +7975,7 @@
         <v>22735206.22419471</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8430,7 +8008,7 @@
         <v>22735206.22419471</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8463,7 +8041,7 @@
         <v>22705656.92789471</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8496,7 +8074,7 @@
         <v>22636594.49609471</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8529,7 +8107,7 @@
         <v>22399179.34699471</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8562,7 +8140,7 @@
         <v>22017913.00069471</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8595,7 +8173,7 @@
         <v>22083208.11439471</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8628,7 +8206,7 @@
         <v>22083208.11439471</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8661,7 +8239,7 @@
         <v>22006230.13249471</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8694,7 +8272,7 @@
         <v>21957851.9033353</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8727,7 +8305,7 @@
         <v>21941240.7493353</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8760,7 +8338,7 @@
         <v>21985539.6671353</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8793,7 +8371,7 @@
         <v>21982607.4665353</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8826,7 +8404,7 @@
         <v>21957129.0067353</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8859,7 +8437,7 @@
         <v>21957129.0067353</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8892,7 +8470,7 @@
         <v>21942402.2744353</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8925,7 +8503,7 @@
         <v>21942402.2744353</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8958,7 +8536,7 @@
         <v>21928278.13154387</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8991,7 +8569,7 @@
         <v>21992609.54045243</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9024,7 +8602,7 @@
         <v>22019507.78644435</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9057,7 +8635,7 @@
         <v>22010348.39174435</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9090,7 +8668,7 @@
         <v>22010348.39174435</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9123,7 +8701,7 @@
         <v>22009965.22794435</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9156,7 +8734,7 @@
         <v>22004493.26734435</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9189,7 +8767,7 @@
         <v>21957720.93854435</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9222,7 +8800,7 @@
         <v>21946454.28374435</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9255,7 +8833,7 @@
         <v>21951364.17554435</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9288,7 +8866,7 @@
         <v>21921536.38744435</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9321,7 +8899,7 @@
         <v>21905209.62054435</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9354,7 +8932,7 @@
         <v>21905209.62054435</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9387,7 +8965,7 @@
         <v>21905209.62054435</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9420,7 +8998,7 @@
         <v>21886059.33744435</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9453,7 +9031,7 @@
         <v>21896621.52544435</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9486,7 +9064,7 @@
         <v>21896621.52544435</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9519,7 +9097,7 @@
         <v>21896621.52544435</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9552,7 +9130,7 @@
         <v>21896621.52544435</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9585,7 +9163,7 @@
         <v>21925042.31574435</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9684,7 +9262,7 @@
         <v>21928686.45734435</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9717,7 +9295,7 @@
         <v>21928686.45734435</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9750,7 +9328,7 @@
         <v>21874608.10604435</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10322,6 +9900,6 @@
       <c r="M282" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest FCT.xlsx
+++ b/BackTest/2020-01-20 BackTest FCT.xlsx
@@ -451,7 +451,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-96063.85555594848</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-86808.82515594848</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-85558.14265594848</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-88608.54415594848</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-88593.54415594848</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-145008.6498559485</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-133922.0220559485</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-201484.8213559485</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-203723.0995269854</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-201002.1185269854</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-201002.1185269854</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-201697.8233269854</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-203447.2869269854</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-200396.8853269854</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-200555.5513269854</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-200571.5513269854</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-88250.91692947774</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-88250.91692947774</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-204537.4298294777</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3619,11 +3619,17 @@
         <v>-1267116.647629478</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>31.16</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3658,17 @@
         <v>-1267116.647629478</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>31.03</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3697,17 @@
         <v>-1267116.647629478</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>31.03</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3736,17 @@
         <v>-1260116.647629478</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>31.03</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3775,17 @@
         <v>-1257116.647629478</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>31.11</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +3818,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +3855,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +3892,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +3929,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3962,17 @@
         <v>-1212776.252429478</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>31.25</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4001,17 @@
         <v>-1212776.252429478</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>31.25</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4040,17 @@
         <v>-1212776.252429478</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>31.25</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4079,17 @@
         <v>-1212620.661375165</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>31.25</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4118,17 @@
         <v>-1212620.661375165</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4157,17 @@
         <v>-1211315.038975165</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4119,10 +4201,12 @@
       <c r="I113" t="n">
         <v>31.4</v>
       </c>
-      <c r="J113" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4154,12 +4238,10 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -4190,14 +4272,10 @@
         <v>-1220080.938175165</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="J115" t="n">
-        <v>31.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4234,9 +4312,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4273,9 +4349,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4312,9 +4386,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4351,9 +4423,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4390,9 +4460,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4429,9 +4497,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,9 +4534,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4507,9 +4571,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4546,9 +4608,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4582,12 +4642,12 @@
         <v>-1217554.568975165</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>31.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4624,9 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4663,9 +4721,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4702,9 +4758,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4741,9 +4795,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4777,12 +4829,12 @@
         <v>-1217554.568975165</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>31.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4819,9 +4871,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4855,12 +4905,12 @@
         <v>-1301321.189275165</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>31.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4894,12 +4944,12 @@
         <v>-1290329.582275165</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>31.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4933,12 +4983,12 @@
         <v>-1290329.582275165</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
         <v>31.4</v>
       </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4972,12 +5022,12 @@
         <v>-1290329.582275165</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
         <v>31.4</v>
       </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5011,12 +5061,12 @@
         <v>-1290329.582275165</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
         <v>31.4</v>
       </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5050,12 +5100,12 @@
         <v>-1290329.582275165</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
         <v>31.4</v>
       </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5089,12 +5139,12 @@
         <v>-1270329.582275165</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
         <v>31.4</v>
       </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5128,12 +5178,12 @@
         <v>7869670.417724835</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>31.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>31.99</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5170,9 +5220,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5206,20 +5254,16 @@
         <v>7069393.618924835</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
@@ -5248,14 +5292,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5287,14 +5325,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5326,14 +5358,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5362,19 +5388,13 @@
         <v>22889452.17669472</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>1.018248407643312</v>
+        <v>1</v>
       </c>
       <c r="M145" t="inlineStr"/>
     </row>
@@ -5401,7 +5421,7 @@
         <v>22889413.36929472</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5434,7 +5454,7 @@
         <v>22889413.36929472</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5500,7 +5520,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5533,7 +5553,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5566,7 +5586,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5599,7 +5619,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5632,7 +5652,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5665,7 +5685,7 @@
         <v>22869011.21299472</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5797,7 +5817,7 @@
         <v>22808224.57039472</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5830,7 +5850,7 @@
         <v>22813837.29399472</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5863,7 +5883,7 @@
         <v>22812658.63219472</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5896,7 +5916,7 @@
         <v>22815973.92799472</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5929,7 +5949,7 @@
         <v>22815973.92799472</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5962,7 +5982,7 @@
         <v>22815067.98459472</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5995,7 +6015,7 @@
         <v>22799311.69749472</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6061,7 +6081,7 @@
         <v>22829111.69749472</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6094,7 +6114,7 @@
         <v>22635630.34189472</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6127,7 +6147,7 @@
         <v>22635646.34189472</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6160,7 +6180,7 @@
         <v>22635646.34189472</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6193,7 +6213,7 @@
         <v>22635646.34189472</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6226,7 +6246,7 @@
         <v>22635613.34189472</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6259,7 +6279,7 @@
         <v>22636613.34189472</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6292,7 +6312,7 @@
         <v>22622537.93719472</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6325,7 +6345,7 @@
         <v>22627358.91099472</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6358,7 +6378,7 @@
         <v>22677155.55699472</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6391,7 +6411,7 @@
         <v>22627358.91099472</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6424,7 +6444,7 @@
         <v>22633133.21239472</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6457,7 +6477,7 @@
         <v>22633033.21239472</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7249,7 +7269,7 @@
         <v>23016988.88689471</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7282,7 +7302,7 @@
         <v>23017004.48759471</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7315,7 +7335,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7348,7 +7368,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7381,7 +7401,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7414,7 +7434,7 @@
         <v>22993071.16479471</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7546,7 +7566,7 @@
         <v>23028792.96599471</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7579,7 +7599,7 @@
         <v>23007248.63379471</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
